--- a/mbrMoPvt_87.xlsx
+++ b/mbrMoPvt_87.xlsx
@@ -684,37 +684,37 @@
         <v>751</v>
       </c>
       <c r="AA2">
-        <v>751</v>
+        <v>29</v>
       </c>
       <c r="AB2">
-        <v>751</v>
+        <v>19</v>
       </c>
       <c r="AC2">
-        <v>720</v>
+        <v>82</v>
       </c>
       <c r="AD2">
-        <v>720</v>
+        <v>29</v>
       </c>
       <c r="AE2">
-        <v>720</v>
+        <v>32</v>
       </c>
       <c r="AF2">
-        <v>850</v>
+        <v>143</v>
       </c>
       <c r="AG2">
-        <v>850</v>
+        <v>30</v>
       </c>
       <c r="AH2">
-        <v>850</v>
+        <v>32</v>
       </c>
       <c r="AI2">
-        <v>865</v>
+        <v>774</v>
       </c>
       <c r="AJ2">
-        <v>865</v>
+        <v>32</v>
       </c>
       <c r="AK2">
-        <v>865</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_87.xlsx
+++ b/mbrMoPvt_87.xlsx
@@ -684,37 +684,37 @@
         <v>751</v>
       </c>
       <c r="AA2">
-        <v>29</v>
+        <v>751</v>
       </c>
       <c r="AB2">
-        <v>19</v>
+        <v>751</v>
       </c>
       <c r="AC2">
-        <v>82</v>
+        <v>720</v>
       </c>
       <c r="AD2">
-        <v>29</v>
+        <v>720</v>
       </c>
       <c r="AE2">
-        <v>32</v>
+        <v>720</v>
       </c>
       <c r="AF2">
-        <v>143</v>
+        <v>805</v>
       </c>
       <c r="AG2">
-        <v>30</v>
+        <v>805</v>
       </c>
       <c r="AH2">
-        <v>32</v>
+        <v>805</v>
       </c>
       <c r="AI2">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="AJ2">
-        <v>32</v>
+        <v>865</v>
       </c>
       <c r="AK2">
-        <v>667</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMoPvt_87.xlsx
+++ b/mbrMoPvt_87.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -124,10 +124,181 @@
     <t>m-2021-12</t>
   </si>
   <si>
-    <t>org_id</t>
-  </si>
-  <si>
-    <t>CARELINEPI</t>
+    <t>m-2022-01</t>
+  </si>
+  <si>
+    <t>m-2022-02</t>
+  </si>
+  <si>
+    <t>m-2022-03</t>
+  </si>
+  <si>
+    <t>ORG_GROUP_ID</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0261</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0274</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0287</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0288</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0307</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0313</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0316</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0365</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0368</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0369</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0370</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0372</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0415</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0421</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0427</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0428</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0459</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0466</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0467</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0470</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0472</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0478</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0481</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0482</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0514</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0515</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0518</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0522</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0524</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0555</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0564</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0568</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0574</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0575</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0625</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0641</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0695</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0698</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0703</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0710</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0723</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0724</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0727</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0744</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0937</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0939</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0940</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0971</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD0998</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD1003</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD1005</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD1088</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD1170</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T1MD1171</t>
+  </si>
+  <si>
+    <t>cj_net|MEDSTAR_MDPCP|T2MD0664</t>
   </si>
 </sst>
 </file>
@@ -485,15 +656,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,118 +774,6670 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
+        <v>868</v>
+      </c>
+      <c r="C2">
+        <v>868</v>
+      </c>
+      <c r="D2">
+        <v>868</v>
+      </c>
+      <c r="E2">
+        <v>931</v>
+      </c>
+      <c r="F2">
+        <v>931</v>
+      </c>
+      <c r="G2">
+        <v>931</v>
+      </c>
+      <c r="H2">
+        <v>932</v>
+      </c>
+      <c r="I2">
+        <v>932</v>
+      </c>
+      <c r="J2">
+        <v>932</v>
+      </c>
+      <c r="K2">
+        <v>906</v>
+      </c>
+      <c r="L2">
+        <v>906</v>
+      </c>
+      <c r="M2">
+        <v>906</v>
+      </c>
+      <c r="N2">
+        <v>900</v>
+      </c>
+      <c r="O2">
+        <v>900</v>
+      </c>
+      <c r="P2">
+        <v>900</v>
+      </c>
+      <c r="Q2">
+        <v>879</v>
+      </c>
+      <c r="R2">
+        <v>879</v>
+      </c>
+      <c r="S2">
+        <v>879</v>
+      </c>
+      <c r="T2">
+        <v>860</v>
+      </c>
+      <c r="U2">
+        <v>860</v>
+      </c>
+      <c r="V2">
+        <v>860</v>
+      </c>
+      <c r="W2">
+        <v>845</v>
+      </c>
+      <c r="X2">
+        <v>845</v>
+      </c>
+      <c r="Y2">
+        <v>845</v>
+      </c>
+      <c r="Z2">
+        <v>826</v>
+      </c>
+      <c r="AA2">
+        <v>826</v>
+      </c>
+      <c r="AB2">
+        <v>826</v>
+      </c>
+      <c r="AC2">
+        <v>817</v>
+      </c>
+      <c r="AD2">
+        <v>817</v>
+      </c>
+      <c r="AE2">
+        <v>817</v>
+      </c>
+      <c r="AF2">
+        <v>713</v>
+      </c>
+      <c r="AG2">
+        <v>713</v>
+      </c>
+      <c r="AH2">
+        <v>713</v>
+      </c>
+      <c r="AI2">
+        <v>713</v>
+      </c>
+      <c r="AJ2">
+        <v>713</v>
+      </c>
+      <c r="AK2">
+        <v>713</v>
+      </c>
+      <c r="AL2">
+        <v>713</v>
+      </c>
+      <c r="AM2">
+        <v>713</v>
+      </c>
+      <c r="AN2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>1366</v>
+      </c>
+      <c r="C3">
+        <v>1366</v>
+      </c>
+      <c r="D3">
+        <v>1366</v>
+      </c>
+      <c r="E3">
+        <v>1401</v>
+      </c>
+      <c r="F3">
+        <v>1401</v>
+      </c>
+      <c r="G3">
+        <v>1401</v>
+      </c>
+      <c r="H3">
+        <v>1401</v>
+      </c>
+      <c r="I3">
+        <v>1401</v>
+      </c>
+      <c r="J3">
+        <v>1401</v>
+      </c>
+      <c r="K3">
+        <v>1354</v>
+      </c>
+      <c r="L3">
+        <v>1354</v>
+      </c>
+      <c r="M3">
+        <v>1354</v>
+      </c>
+      <c r="N3">
+        <v>1319</v>
+      </c>
+      <c r="O3">
+        <v>1319</v>
+      </c>
+      <c r="P3">
+        <v>1319</v>
+      </c>
+      <c r="Q3">
+        <v>1268</v>
+      </c>
+      <c r="R3">
+        <v>1268</v>
+      </c>
+      <c r="S3">
+        <v>1268</v>
+      </c>
+      <c r="T3">
+        <v>1237</v>
+      </c>
+      <c r="U3">
+        <v>1237</v>
+      </c>
+      <c r="V3">
+        <v>1237</v>
+      </c>
+      <c r="W3">
+        <v>1165</v>
+      </c>
+      <c r="X3">
+        <v>1165</v>
+      </c>
+      <c r="Y3">
+        <v>1165</v>
+      </c>
+      <c r="Z3">
+        <v>1114</v>
+      </c>
+      <c r="AA3">
+        <v>1114</v>
+      </c>
+      <c r="AB3">
+        <v>1114</v>
+      </c>
+      <c r="AC3">
+        <v>1087</v>
+      </c>
+      <c r="AD3">
+        <v>1087</v>
+      </c>
+      <c r="AE3">
+        <v>1087</v>
+      </c>
+      <c r="AF3">
+        <v>971</v>
+      </c>
+      <c r="AG3">
+        <v>971</v>
+      </c>
+      <c r="AH3">
+        <v>971</v>
+      </c>
+      <c r="AI3">
+        <v>925</v>
+      </c>
+      <c r="AJ3">
+        <v>925</v>
+      </c>
+      <c r="AK3">
+        <v>925</v>
+      </c>
+      <c r="AL3">
+        <v>860</v>
+      </c>
+      <c r="AM3">
+        <v>860</v>
+      </c>
+      <c r="AN3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>3167</v>
+      </c>
+      <c r="C4">
+        <v>3167</v>
+      </c>
+      <c r="D4">
+        <v>3167</v>
+      </c>
+      <c r="E4">
+        <v>3253</v>
+      </c>
+      <c r="F4">
+        <v>3253</v>
+      </c>
+      <c r="G4">
+        <v>3253</v>
+      </c>
+      <c r="H4">
+        <v>3253</v>
+      </c>
+      <c r="I4">
+        <v>3253</v>
+      </c>
+      <c r="J4">
+        <v>3253</v>
+      </c>
+      <c r="K4">
+        <v>3089</v>
+      </c>
+      <c r="L4">
+        <v>3089</v>
+      </c>
+      <c r="M4">
+        <v>3089</v>
+      </c>
+      <c r="N4">
+        <v>3016</v>
+      </c>
+      <c r="O4">
+        <v>3016</v>
+      </c>
+      <c r="P4">
+        <v>3016</v>
+      </c>
+      <c r="Q4">
+        <v>2925</v>
+      </c>
+      <c r="R4">
+        <v>2925</v>
+      </c>
+      <c r="S4">
+        <v>2925</v>
+      </c>
+      <c r="T4">
+        <v>2877</v>
+      </c>
+      <c r="U4">
+        <v>2877</v>
+      </c>
+      <c r="V4">
+        <v>2877</v>
+      </c>
+      <c r="W4">
+        <v>2816</v>
+      </c>
+      <c r="X4">
+        <v>2816</v>
+      </c>
+      <c r="Y4">
+        <v>2816</v>
+      </c>
+      <c r="Z4">
+        <v>2725</v>
+      </c>
+      <c r="AA4">
+        <v>2725</v>
+      </c>
+      <c r="AB4">
+        <v>2725</v>
+      </c>
+      <c r="AC4">
+        <v>2632</v>
+      </c>
+      <c r="AD4">
+        <v>2632</v>
+      </c>
+      <c r="AE4">
+        <v>2632</v>
+      </c>
+      <c r="AF4">
+        <v>2160</v>
+      </c>
+      <c r="AG4">
+        <v>2160</v>
+      </c>
+      <c r="AH4">
+        <v>2160</v>
+      </c>
+      <c r="AI4">
+        <v>2065</v>
+      </c>
+      <c r="AJ4">
+        <v>2065</v>
+      </c>
+      <c r="AK4">
+        <v>2065</v>
+      </c>
+      <c r="AL4">
+        <v>1932</v>
+      </c>
+      <c r="AM4">
+        <v>1932</v>
+      </c>
+      <c r="AN4">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>970</v>
+      </c>
+      <c r="C5">
+        <v>970</v>
+      </c>
+      <c r="D5">
+        <v>970</v>
+      </c>
+      <c r="E5">
+        <v>1022</v>
+      </c>
+      <c r="F5">
+        <v>1022</v>
+      </c>
+      <c r="G5">
+        <v>1022</v>
+      </c>
+      <c r="H5">
+        <v>1021</v>
+      </c>
+      <c r="I5">
+        <v>1021</v>
+      </c>
+      <c r="J5">
+        <v>1021</v>
+      </c>
+      <c r="K5">
+        <v>995</v>
+      </c>
+      <c r="L5">
+        <v>995</v>
+      </c>
+      <c r="M5">
+        <v>995</v>
+      </c>
+      <c r="N5">
+        <v>982</v>
+      </c>
+      <c r="O5">
+        <v>982</v>
+      </c>
+      <c r="P5">
+        <v>982</v>
+      </c>
+      <c r="Q5">
+        <v>946</v>
+      </c>
+      <c r="R5">
+        <v>946</v>
+      </c>
+      <c r="S5">
+        <v>946</v>
+      </c>
+      <c r="T5">
+        <v>929</v>
+      </c>
+      <c r="U5">
+        <v>929</v>
+      </c>
+      <c r="V5">
+        <v>929</v>
+      </c>
+      <c r="W5">
+        <v>903</v>
+      </c>
+      <c r="X5">
+        <v>903</v>
+      </c>
+      <c r="Y5">
+        <v>903</v>
+      </c>
+      <c r="Z5">
+        <v>879</v>
+      </c>
+      <c r="AA5">
+        <v>879</v>
+      </c>
+      <c r="AB5">
+        <v>879</v>
+      </c>
+      <c r="AC5">
+        <v>866</v>
+      </c>
+      <c r="AD5">
+        <v>866</v>
+      </c>
+      <c r="AE5">
+        <v>866</v>
+      </c>
+      <c r="AF5">
+        <v>782</v>
+      </c>
+      <c r="AG5">
+        <v>782</v>
+      </c>
+      <c r="AH5">
+        <v>782</v>
+      </c>
+      <c r="AI5">
+        <v>756</v>
+      </c>
+      <c r="AJ5">
+        <v>756</v>
+      </c>
+      <c r="AK5">
+        <v>756</v>
+      </c>
+      <c r="AL5">
+        <v>733</v>
+      </c>
+      <c r="AM5">
+        <v>733</v>
+      </c>
+      <c r="AN5">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1236</v>
+      </c>
+      <c r="C6">
+        <v>1236</v>
+      </c>
+      <c r="D6">
+        <v>1236</v>
+      </c>
+      <c r="E6">
+        <v>1275</v>
+      </c>
+      <c r="F6">
+        <v>1275</v>
+      </c>
+      <c r="G6">
+        <v>1275</v>
+      </c>
+      <c r="H6">
+        <v>1275</v>
+      </c>
+      <c r="I6">
+        <v>1275</v>
+      </c>
+      <c r="J6">
+        <v>1275</v>
+      </c>
+      <c r="K6">
+        <v>1250</v>
+      </c>
+      <c r="L6">
+        <v>1250</v>
+      </c>
+      <c r="M6">
+        <v>1250</v>
+      </c>
+      <c r="N6">
+        <v>1231</v>
+      </c>
+      <c r="O6">
+        <v>1231</v>
+      </c>
+      <c r="P6">
+        <v>1231</v>
+      </c>
+      <c r="Q6">
+        <v>1208</v>
+      </c>
+      <c r="R6">
+        <v>1208</v>
+      </c>
+      <c r="S6">
+        <v>1208</v>
+      </c>
+      <c r="T6">
+        <v>1191</v>
+      </c>
+      <c r="U6">
+        <v>1191</v>
+      </c>
+      <c r="V6">
+        <v>1191</v>
+      </c>
+      <c r="W6">
+        <v>1173</v>
+      </c>
+      <c r="X6">
+        <v>1173</v>
+      </c>
+      <c r="Y6">
+        <v>1173</v>
+      </c>
+      <c r="Z6">
+        <v>1151</v>
+      </c>
+      <c r="AA6">
+        <v>1151</v>
+      </c>
+      <c r="AB6">
+        <v>1151</v>
+      </c>
+      <c r="AC6">
+        <v>1136</v>
+      </c>
+      <c r="AD6">
+        <v>1136</v>
+      </c>
+      <c r="AE6">
+        <v>1136</v>
+      </c>
+      <c r="AF6">
+        <v>1018</v>
+      </c>
+      <c r="AG6">
+        <v>1018</v>
+      </c>
+      <c r="AH6">
+        <v>1018</v>
+      </c>
+      <c r="AI6">
+        <v>994</v>
+      </c>
+      <c r="AJ6">
+        <v>994</v>
+      </c>
+      <c r="AK6">
+        <v>994</v>
+      </c>
+      <c r="AL6">
+        <v>960</v>
+      </c>
+      <c r="AM6">
+        <v>960</v>
+      </c>
+      <c r="AN6">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>916</v>
+      </c>
+      <c r="C7">
+        <v>916</v>
+      </c>
+      <c r="D7">
+        <v>916</v>
+      </c>
+      <c r="E7">
+        <v>937</v>
+      </c>
+      <c r="F7">
+        <v>937</v>
+      </c>
+      <c r="G7">
+        <v>937</v>
+      </c>
+      <c r="H7">
+        <v>937</v>
+      </c>
+      <c r="I7">
+        <v>937</v>
+      </c>
+      <c r="J7">
+        <v>937</v>
+      </c>
+      <c r="K7">
+        <v>871</v>
+      </c>
+      <c r="L7">
+        <v>871</v>
+      </c>
+      <c r="M7">
+        <v>871</v>
+      </c>
+      <c r="N7">
+        <v>856</v>
+      </c>
+      <c r="O7">
+        <v>856</v>
+      </c>
+      <c r="P7">
+        <v>856</v>
+      </c>
+      <c r="Q7">
+        <v>838</v>
+      </c>
+      <c r="R7">
+        <v>838</v>
+      </c>
+      <c r="S7">
+        <v>838</v>
+      </c>
+      <c r="T7">
+        <v>826</v>
+      </c>
+      <c r="U7">
+        <v>826</v>
+      </c>
+      <c r="V7">
+        <v>826</v>
+      </c>
+      <c r="W7">
+        <v>809</v>
+      </c>
+      <c r="X7">
+        <v>809</v>
+      </c>
+      <c r="Y7">
+        <v>809</v>
+      </c>
+      <c r="Z7">
+        <v>790</v>
+      </c>
+      <c r="AA7">
+        <v>790</v>
+      </c>
+      <c r="AB7">
+        <v>790</v>
+      </c>
+      <c r="AC7">
+        <v>780</v>
+      </c>
+      <c r="AD7">
+        <v>780</v>
+      </c>
+      <c r="AE7">
+        <v>780</v>
+      </c>
+      <c r="AF7">
+        <v>725</v>
+      </c>
+      <c r="AG7">
+        <v>725</v>
+      </c>
+      <c r="AH7">
+        <v>725</v>
+      </c>
+      <c r="AI7">
+        <v>702</v>
+      </c>
+      <c r="AJ7">
+        <v>702</v>
+      </c>
+      <c r="AK7">
+        <v>702</v>
+      </c>
+      <c r="AL7">
+        <v>677</v>
+      </c>
+      <c r="AM7">
+        <v>677</v>
+      </c>
+      <c r="AN7">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>741</v>
+      </c>
+      <c r="C8">
+        <v>741</v>
+      </c>
+      <c r="D8">
+        <v>741</v>
+      </c>
+      <c r="E8">
+        <v>786</v>
+      </c>
+      <c r="F8">
+        <v>786</v>
+      </c>
+      <c r="G8">
+        <v>786</v>
+      </c>
+      <c r="H8">
+        <v>786</v>
+      </c>
+      <c r="I8">
+        <v>786</v>
+      </c>
+      <c r="J8">
+        <v>786</v>
+      </c>
+      <c r="K8">
+        <v>765</v>
+      </c>
+      <c r="L8">
+        <v>765</v>
+      </c>
+      <c r="M8">
+        <v>765</v>
+      </c>
+      <c r="N8">
+        <v>757</v>
+      </c>
+      <c r="O8">
+        <v>757</v>
+      </c>
+      <c r="P8">
+        <v>757</v>
+      </c>
+      <c r="Q8">
+        <v>742</v>
+      </c>
+      <c r="R8">
+        <v>742</v>
+      </c>
+      <c r="S8">
+        <v>742</v>
+      </c>
+      <c r="T8">
+        <v>735</v>
+      </c>
+      <c r="U8">
+        <v>735</v>
+      </c>
+      <c r="V8">
+        <v>735</v>
+      </c>
+      <c r="W8">
+        <v>726</v>
+      </c>
+      <c r="X8">
+        <v>726</v>
+      </c>
+      <c r="Y8">
+        <v>726</v>
+      </c>
+      <c r="Z8">
+        <v>711</v>
+      </c>
+      <c r="AA8">
+        <v>711</v>
+      </c>
+      <c r="AB8">
+        <v>711</v>
+      </c>
+      <c r="AC8">
+        <v>706</v>
+      </c>
+      <c r="AD8">
+        <v>706</v>
+      </c>
+      <c r="AE8">
+        <v>706</v>
+      </c>
+      <c r="AF8">
+        <v>601</v>
+      </c>
+      <c r="AG8">
+        <v>601</v>
+      </c>
+      <c r="AH8">
+        <v>601</v>
+      </c>
+      <c r="AI8">
+        <v>601</v>
+      </c>
+      <c r="AJ8">
+        <v>601</v>
+      </c>
+      <c r="AK8">
+        <v>601</v>
+      </c>
+      <c r="AL8">
+        <v>601</v>
+      </c>
+      <c r="AM8">
+        <v>601</v>
+      </c>
+      <c r="AN8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>792</v>
+      </c>
+      <c r="C9">
+        <v>792</v>
+      </c>
+      <c r="D9">
+        <v>792</v>
+      </c>
+      <c r="E9">
+        <v>811</v>
+      </c>
+      <c r="F9">
+        <v>811</v>
+      </c>
+      <c r="G9">
+        <v>811</v>
+      </c>
+      <c r="H9">
+        <v>811</v>
+      </c>
+      <c r="I9">
+        <v>811</v>
+      </c>
+      <c r="J9">
+        <v>811</v>
+      </c>
+      <c r="K9">
+        <v>774</v>
+      </c>
+      <c r="L9">
+        <v>774</v>
+      </c>
+      <c r="M9">
+        <v>774</v>
+      </c>
+      <c r="N9">
+        <v>752</v>
+      </c>
+      <c r="O9">
+        <v>752</v>
+      </c>
+      <c r="P9">
+        <v>752</v>
+      </c>
+      <c r="Q9">
+        <v>733</v>
+      </c>
+      <c r="R9">
+        <v>733</v>
+      </c>
+      <c r="S9">
+        <v>733</v>
+      </c>
+      <c r="T9">
+        <v>715</v>
+      </c>
+      <c r="U9">
+        <v>715</v>
+      </c>
+      <c r="V9">
+        <v>715</v>
+      </c>
+      <c r="W9">
+        <v>699</v>
+      </c>
+      <c r="X9">
+        <v>699</v>
+      </c>
+      <c r="Y9">
+        <v>699</v>
+      </c>
+      <c r="Z9">
+        <v>676</v>
+      </c>
+      <c r="AA9">
+        <v>676</v>
+      </c>
+      <c r="AB9">
+        <v>676</v>
+      </c>
+      <c r="AC9">
+        <v>665</v>
+      </c>
+      <c r="AD9">
+        <v>665</v>
+      </c>
+      <c r="AE9">
+        <v>665</v>
+      </c>
+      <c r="AF9">
+        <v>622</v>
+      </c>
+      <c r="AG9">
+        <v>622</v>
+      </c>
+      <c r="AH9">
+        <v>622</v>
+      </c>
+      <c r="AI9">
+        <v>589</v>
+      </c>
+      <c r="AJ9">
+        <v>589</v>
+      </c>
+      <c r="AK9">
+        <v>589</v>
+      </c>
+      <c r="AL9">
+        <v>526</v>
+      </c>
+      <c r="AM9">
+        <v>526</v>
+      </c>
+      <c r="AN9">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>1555</v>
+      </c>
+      <c r="C10">
+        <v>1555</v>
+      </c>
+      <c r="D10">
+        <v>1555</v>
+      </c>
+      <c r="E10">
+        <v>1606</v>
+      </c>
+      <c r="F10">
+        <v>1606</v>
+      </c>
+      <c r="G10">
+        <v>1606</v>
+      </c>
+      <c r="H10">
+        <v>1606</v>
+      </c>
+      <c r="I10">
+        <v>1606</v>
+      </c>
+      <c r="J10">
+        <v>1606</v>
+      </c>
+      <c r="K10">
+        <v>1597</v>
+      </c>
+      <c r="L10">
+        <v>1597</v>
+      </c>
+      <c r="M10">
+        <v>1597</v>
+      </c>
+      <c r="N10">
+        <v>1537</v>
+      </c>
+      <c r="O10">
+        <v>1537</v>
+      </c>
+      <c r="P10">
+        <v>1537</v>
+      </c>
+      <c r="Q10">
+        <v>1482</v>
+      </c>
+      <c r="R10">
+        <v>1482</v>
+      </c>
+      <c r="S10">
+        <v>1482</v>
+      </c>
+      <c r="T10">
+        <v>1450</v>
+      </c>
+      <c r="U10">
+        <v>1450</v>
+      </c>
+      <c r="V10">
+        <v>1450</v>
+      </c>
+      <c r="W10">
+        <v>1412</v>
+      </c>
+      <c r="X10">
+        <v>1412</v>
+      </c>
+      <c r="Y10">
+        <v>1412</v>
+      </c>
+      <c r="Z10">
+        <v>1362</v>
+      </c>
+      <c r="AA10">
+        <v>1362</v>
+      </c>
+      <c r="AB10">
+        <v>1362</v>
+      </c>
+      <c r="AC10">
+        <v>1342</v>
+      </c>
+      <c r="AD10">
+        <v>1342</v>
+      </c>
+      <c r="AE10">
+        <v>1342</v>
+      </c>
+      <c r="AF10">
+        <v>1268</v>
+      </c>
+      <c r="AG10">
+        <v>1268</v>
+      </c>
+      <c r="AH10">
+        <v>1268</v>
+      </c>
+      <c r="AI10">
+        <v>1229</v>
+      </c>
+      <c r="AJ10">
+        <v>1229</v>
+      </c>
+      <c r="AK10">
+        <v>1229</v>
+      </c>
+      <c r="AL10">
+        <v>1153</v>
+      </c>
+      <c r="AM10">
+        <v>1153</v>
+      </c>
+      <c r="AN10">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>549</v>
+      </c>
+      <c r="C11">
+        <v>549</v>
+      </c>
+      <c r="D11">
+        <v>549</v>
+      </c>
+      <c r="E11">
+        <v>593</v>
+      </c>
+      <c r="F11">
+        <v>593</v>
+      </c>
+      <c r="G11">
+        <v>593</v>
+      </c>
+      <c r="H11">
+        <v>593</v>
+      </c>
+      <c r="I11">
+        <v>593</v>
+      </c>
+      <c r="J11">
+        <v>593</v>
+      </c>
+      <c r="K11">
+        <v>576</v>
+      </c>
+      <c r="L11">
+        <v>576</v>
+      </c>
+      <c r="M11">
+        <v>576</v>
+      </c>
+      <c r="N11">
+        <v>566</v>
+      </c>
+      <c r="O11">
+        <v>566</v>
+      </c>
+      <c r="P11">
+        <v>566</v>
+      </c>
+      <c r="Q11">
+        <v>557</v>
+      </c>
+      <c r="R11">
+        <v>557</v>
+      </c>
+      <c r="S11">
+        <v>557</v>
+      </c>
+      <c r="T11">
+        <v>553</v>
+      </c>
+      <c r="U11">
+        <v>553</v>
+      </c>
+      <c r="V11">
+        <v>553</v>
+      </c>
+      <c r="W11">
+        <v>538</v>
+      </c>
+      <c r="X11">
+        <v>538</v>
+      </c>
+      <c r="Y11">
+        <v>538</v>
+      </c>
+      <c r="Z11">
+        <v>528</v>
+      </c>
+      <c r="AA11">
+        <v>528</v>
+      </c>
+      <c r="AB11">
+        <v>528</v>
+      </c>
+      <c r="AC11">
+        <v>522</v>
+      </c>
+      <c r="AD11">
+        <v>522</v>
+      </c>
+      <c r="AE11">
+        <v>522</v>
+      </c>
+      <c r="AF11">
+        <v>508</v>
+      </c>
+      <c r="AG11">
+        <v>508</v>
+      </c>
+      <c r="AH11">
+        <v>508</v>
+      </c>
+      <c r="AI11">
+        <v>490</v>
+      </c>
+      <c r="AJ11">
+        <v>490</v>
+      </c>
+      <c r="AK11">
+        <v>490</v>
+      </c>
+      <c r="AL11">
+        <v>467</v>
+      </c>
+      <c r="AM11">
+        <v>467</v>
+      </c>
+      <c r="AN11">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>2376</v>
+      </c>
+      <c r="C12">
+        <v>2376</v>
+      </c>
+      <c r="D12">
+        <v>2376</v>
+      </c>
+      <c r="E12">
+        <v>2470</v>
+      </c>
+      <c r="F12">
+        <v>2470</v>
+      </c>
+      <c r="G12">
+        <v>2470</v>
+      </c>
+      <c r="H12">
+        <v>2470</v>
+      </c>
+      <c r="I12">
+        <v>2470</v>
+      </c>
+      <c r="J12">
+        <v>2470</v>
+      </c>
+      <c r="K12">
+        <v>2352</v>
+      </c>
+      <c r="L12">
+        <v>2352</v>
+      </c>
+      <c r="M12">
+        <v>2352</v>
+      </c>
+      <c r="N12">
+        <v>2277</v>
+      </c>
+      <c r="O12">
+        <v>2277</v>
+      </c>
+      <c r="P12">
+        <v>2277</v>
+      </c>
+      <c r="Q12">
+        <v>2211</v>
+      </c>
+      <c r="R12">
+        <v>2211</v>
+      </c>
+      <c r="S12">
+        <v>2211</v>
+      </c>
+      <c r="T12">
+        <v>2120</v>
+      </c>
+      <c r="U12">
+        <v>2120</v>
+      </c>
+      <c r="V12">
+        <v>2120</v>
+      </c>
+      <c r="W12">
+        <v>2003</v>
+      </c>
+      <c r="X12">
+        <v>2003</v>
+      </c>
+      <c r="Y12">
+        <v>2003</v>
+      </c>
+      <c r="Z12">
+        <v>1927</v>
+      </c>
+      <c r="AA12">
+        <v>1927</v>
+      </c>
+      <c r="AB12">
+        <v>1927</v>
+      </c>
+      <c r="AC12">
+        <v>1892</v>
+      </c>
+      <c r="AD12">
+        <v>1892</v>
+      </c>
+      <c r="AE12">
+        <v>1892</v>
+      </c>
+      <c r="AF12">
+        <v>1769</v>
+      </c>
+      <c r="AG12">
+        <v>1769</v>
+      </c>
+      <c r="AH12">
+        <v>1769</v>
+      </c>
+      <c r="AI12">
+        <v>1701</v>
+      </c>
+      <c r="AJ12">
+        <v>1701</v>
+      </c>
+      <c r="AK12">
+        <v>1701</v>
+      </c>
+      <c r="AL12">
+        <v>1605</v>
+      </c>
+      <c r="AM12">
+        <v>1605</v>
+      </c>
+      <c r="AN12">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1045</v>
+      </c>
+      <c r="C13">
+        <v>1045</v>
+      </c>
+      <c r="D13">
+        <v>1045</v>
+      </c>
+      <c r="E13">
+        <v>1065</v>
+      </c>
+      <c r="F13">
+        <v>1065</v>
+      </c>
+      <c r="G13">
+        <v>1065</v>
+      </c>
+      <c r="H13">
+        <v>1065</v>
+      </c>
+      <c r="I13">
+        <v>1065</v>
+      </c>
+      <c r="J13">
+        <v>1065</v>
+      </c>
+      <c r="K13">
+        <v>1003</v>
+      </c>
+      <c r="L13">
+        <v>1003</v>
+      </c>
+      <c r="M13">
+        <v>1003</v>
+      </c>
+      <c r="N13">
+        <v>952</v>
+      </c>
+      <c r="O13">
+        <v>952</v>
+      </c>
+      <c r="P13">
+        <v>952</v>
+      </c>
+      <c r="Q13">
+        <v>911</v>
+      </c>
+      <c r="R13">
+        <v>911</v>
+      </c>
+      <c r="S13">
+        <v>911</v>
+      </c>
+      <c r="T13">
+        <v>884</v>
+      </c>
+      <c r="U13">
+        <v>884</v>
+      </c>
+      <c r="V13">
+        <v>884</v>
+      </c>
+      <c r="W13">
+        <v>869</v>
+      </c>
+      <c r="X13">
+        <v>869</v>
+      </c>
+      <c r="Y13">
+        <v>869</v>
+      </c>
+      <c r="Z13">
+        <v>830</v>
+      </c>
+      <c r="AA13">
+        <v>830</v>
+      </c>
+      <c r="AB13">
+        <v>830</v>
+      </c>
+      <c r="AC13">
+        <v>816</v>
+      </c>
+      <c r="AD13">
+        <v>816</v>
+      </c>
+      <c r="AE13">
+        <v>816</v>
+      </c>
+      <c r="AF13">
+        <v>764</v>
+      </c>
+      <c r="AG13">
+        <v>764</v>
+      </c>
+      <c r="AH13">
+        <v>764</v>
+      </c>
+      <c r="AI13">
+        <v>743</v>
+      </c>
+      <c r="AJ13">
+        <v>743</v>
+      </c>
+      <c r="AK13">
+        <v>743</v>
+      </c>
+      <c r="AL13">
+        <v>706</v>
+      </c>
+      <c r="AM13">
+        <v>706</v>
+      </c>
+      <c r="AN13">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14">
+        <v>2012</v>
+      </c>
+      <c r="D14">
+        <v>2012</v>
+      </c>
+      <c r="E14">
+        <v>2056</v>
+      </c>
+      <c r="F14">
+        <v>2056</v>
+      </c>
+      <c r="G14">
+        <v>2056</v>
+      </c>
+      <c r="H14">
+        <v>2056</v>
+      </c>
+      <c r="I14">
+        <v>2056</v>
+      </c>
+      <c r="J14">
+        <v>2056</v>
+      </c>
+      <c r="K14">
+        <v>1981</v>
+      </c>
+      <c r="L14">
+        <v>1981</v>
+      </c>
+      <c r="M14">
+        <v>1981</v>
+      </c>
+      <c r="N14">
+        <v>1932</v>
+      </c>
+      <c r="O14">
+        <v>1932</v>
+      </c>
+      <c r="P14">
+        <v>1932</v>
+      </c>
+      <c r="Q14">
+        <v>1880</v>
+      </c>
+      <c r="R14">
+        <v>1880</v>
+      </c>
+      <c r="S14">
+        <v>1880</v>
+      </c>
+      <c r="T14">
+        <v>1855</v>
+      </c>
+      <c r="U14">
+        <v>1855</v>
+      </c>
+      <c r="V14">
+        <v>1855</v>
+      </c>
+      <c r="W14">
+        <v>1819</v>
+      </c>
+      <c r="X14">
+        <v>1819</v>
+      </c>
+      <c r="Y14">
+        <v>1819</v>
+      </c>
+      <c r="Z14">
+        <v>1772</v>
+      </c>
+      <c r="AA14">
+        <v>1772</v>
+      </c>
+      <c r="AB14">
+        <v>1772</v>
+      </c>
+      <c r="AC14">
+        <v>1751</v>
+      </c>
+      <c r="AD14">
+        <v>1751</v>
+      </c>
+      <c r="AE14">
+        <v>1751</v>
+      </c>
+      <c r="AF14">
+        <v>1526</v>
+      </c>
+      <c r="AG14">
+        <v>1526</v>
+      </c>
+      <c r="AH14">
+        <v>1526</v>
+      </c>
+      <c r="AI14">
+        <v>1488</v>
+      </c>
+      <c r="AJ14">
+        <v>1488</v>
+      </c>
+      <c r="AK14">
+        <v>1488</v>
+      </c>
+      <c r="AL14">
+        <v>1413</v>
+      </c>
+      <c r="AM14">
+        <v>1413</v>
+      </c>
+      <c r="AN14">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>1669</v>
+      </c>
+      <c r="C15">
+        <v>1669</v>
+      </c>
+      <c r="D15">
+        <v>1669</v>
+      </c>
+      <c r="E15">
+        <v>1722</v>
+      </c>
+      <c r="F15">
+        <v>1722</v>
+      </c>
+      <c r="G15">
+        <v>1722</v>
+      </c>
+      <c r="H15">
+        <v>1722</v>
+      </c>
+      <c r="I15">
+        <v>1722</v>
+      </c>
+      <c r="J15">
+        <v>1722</v>
+      </c>
+      <c r="K15">
+        <v>1678</v>
+      </c>
+      <c r="L15">
+        <v>1678</v>
+      </c>
+      <c r="M15">
+        <v>1678</v>
+      </c>
+      <c r="N15">
+        <v>1636</v>
+      </c>
+      <c r="O15">
+        <v>1636</v>
+      </c>
+      <c r="P15">
+        <v>1636</v>
+      </c>
+      <c r="Q15">
+        <v>1590</v>
+      </c>
+      <c r="R15">
+        <v>1590</v>
+      </c>
+      <c r="S15">
+        <v>1590</v>
+      </c>
+      <c r="T15">
+        <v>1555</v>
+      </c>
+      <c r="U15">
+        <v>1555</v>
+      </c>
+      <c r="V15">
+        <v>1555</v>
+      </c>
+      <c r="W15">
+        <v>1524</v>
+      </c>
+      <c r="X15">
+        <v>1524</v>
+      </c>
+      <c r="Y15">
+        <v>1524</v>
+      </c>
+      <c r="Z15">
+        <v>1500</v>
+      </c>
+      <c r="AA15">
+        <v>1500</v>
+      </c>
+      <c r="AB15">
+        <v>1500</v>
+      </c>
+      <c r="AC15">
+        <v>1473</v>
+      </c>
+      <c r="AD15">
+        <v>1473</v>
+      </c>
+      <c r="AE15">
+        <v>1473</v>
+      </c>
+      <c r="AF15">
+        <v>1311</v>
+      </c>
+      <c r="AG15">
+        <v>1311</v>
+      </c>
+      <c r="AH15">
+        <v>1311</v>
+      </c>
+      <c r="AI15">
+        <v>1269</v>
+      </c>
+      <c r="AJ15">
+        <v>1269</v>
+      </c>
+      <c r="AK15">
+        <v>1269</v>
+      </c>
+      <c r="AL15">
+        <v>1186</v>
+      </c>
+      <c r="AM15">
+        <v>1186</v>
+      </c>
+      <c r="AN15">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>1174</v>
+      </c>
+      <c r="C16">
+        <v>1174</v>
+      </c>
+      <c r="D16">
+        <v>1174</v>
+      </c>
+      <c r="E16">
+        <v>1223</v>
+      </c>
+      <c r="F16">
+        <v>1223</v>
+      </c>
+      <c r="G16">
+        <v>1223</v>
+      </c>
+      <c r="H16">
+        <v>1223</v>
+      </c>
+      <c r="I16">
+        <v>1223</v>
+      </c>
+      <c r="J16">
+        <v>1223</v>
+      </c>
+      <c r="K16">
+        <v>1189</v>
+      </c>
+      <c r="L16">
+        <v>1189</v>
+      </c>
+      <c r="M16">
+        <v>1189</v>
+      </c>
+      <c r="N16">
+        <v>1169</v>
+      </c>
+      <c r="O16">
+        <v>1169</v>
+      </c>
+      <c r="P16">
+        <v>1169</v>
+      </c>
+      <c r="Q16">
+        <v>1148</v>
+      </c>
+      <c r="R16">
+        <v>1148</v>
+      </c>
+      <c r="S16">
+        <v>1148</v>
+      </c>
+      <c r="T16">
+        <v>1140</v>
+      </c>
+      <c r="U16">
+        <v>1140</v>
+      </c>
+      <c r="V16">
+        <v>1140</v>
+      </c>
+      <c r="W16">
+        <v>1124</v>
+      </c>
+      <c r="X16">
+        <v>1124</v>
+      </c>
+      <c r="Y16">
+        <v>1124</v>
+      </c>
+      <c r="Z16">
+        <v>1093</v>
+      </c>
+      <c r="AA16">
+        <v>1093</v>
+      </c>
+      <c r="AB16">
+        <v>1093</v>
+      </c>
+      <c r="AC16">
+        <v>1073</v>
+      </c>
+      <c r="AD16">
+        <v>1073</v>
+      </c>
+      <c r="AE16">
+        <v>1073</v>
+      </c>
+      <c r="AF16">
+        <v>1018</v>
+      </c>
+      <c r="AG16">
+        <v>1018</v>
+      </c>
+      <c r="AH16">
+        <v>1018</v>
+      </c>
+      <c r="AI16">
+        <v>978</v>
+      </c>
+      <c r="AJ16">
+        <v>978</v>
+      </c>
+      <c r="AK16">
+        <v>978</v>
+      </c>
+      <c r="AL16">
+        <v>924</v>
+      </c>
+      <c r="AM16">
+        <v>924</v>
+      </c>
+      <c r="AN16">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>990</v>
+      </c>
+      <c r="C17">
+        <v>990</v>
+      </c>
+      <c r="D17">
+        <v>990</v>
+      </c>
+      <c r="E17">
+        <v>1020</v>
+      </c>
+      <c r="F17">
+        <v>1020</v>
+      </c>
+      <c r="G17">
+        <v>1020</v>
+      </c>
+      <c r="H17">
+        <v>1020</v>
+      </c>
+      <c r="I17">
+        <v>1020</v>
+      </c>
+      <c r="J17">
+        <v>1020</v>
+      </c>
+      <c r="K17">
+        <v>1014</v>
+      </c>
+      <c r="L17">
+        <v>1014</v>
+      </c>
+      <c r="M17">
+        <v>1014</v>
+      </c>
+      <c r="N17">
+        <v>1011</v>
+      </c>
+      <c r="O17">
+        <v>1011</v>
+      </c>
+      <c r="P17">
+        <v>1011</v>
+      </c>
+      <c r="Q17">
+        <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>1000</v>
+      </c>
+      <c r="S17">
+        <v>1000</v>
+      </c>
+      <c r="T17">
+        <v>989</v>
+      </c>
+      <c r="U17">
+        <v>989</v>
+      </c>
+      <c r="V17">
+        <v>989</v>
+      </c>
+      <c r="W17">
+        <v>955</v>
+      </c>
+      <c r="X17">
+        <v>955</v>
+      </c>
+      <c r="Y17">
+        <v>955</v>
+      </c>
+      <c r="Z17">
+        <v>931</v>
+      </c>
+      <c r="AA17">
+        <v>931</v>
+      </c>
+      <c r="AB17">
+        <v>931</v>
+      </c>
+      <c r="AC17">
+        <v>923</v>
+      </c>
+      <c r="AD17">
+        <v>923</v>
+      </c>
+      <c r="AE17">
+        <v>923</v>
+      </c>
+      <c r="AF17">
+        <v>893</v>
+      </c>
+      <c r="AG17">
+        <v>893</v>
+      </c>
+      <c r="AH17">
+        <v>893</v>
+      </c>
+      <c r="AI17">
+        <v>867</v>
+      </c>
+      <c r="AJ17">
+        <v>867</v>
+      </c>
+      <c r="AK17">
+        <v>867</v>
+      </c>
+      <c r="AL17">
+        <v>837</v>
+      </c>
+      <c r="AM17">
+        <v>837</v>
+      </c>
+      <c r="AN17">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>2173</v>
+      </c>
+      <c r="C18">
+        <v>2173</v>
+      </c>
+      <c r="D18">
+        <v>2173</v>
+      </c>
+      <c r="E18">
+        <v>2231</v>
+      </c>
+      <c r="F18">
+        <v>2231</v>
+      </c>
+      <c r="G18">
+        <v>2231</v>
+      </c>
+      <c r="H18">
+        <v>2231</v>
+      </c>
+      <c r="I18">
+        <v>2231</v>
+      </c>
+      <c r="J18">
+        <v>2231</v>
+      </c>
+      <c r="K18">
+        <v>2140</v>
+      </c>
+      <c r="L18">
+        <v>2140</v>
+      </c>
+      <c r="M18">
+        <v>2140</v>
+      </c>
+      <c r="N18">
+        <v>2094</v>
+      </c>
+      <c r="O18">
+        <v>2094</v>
+      </c>
+      <c r="P18">
+        <v>2094</v>
+      </c>
+      <c r="Q18">
+        <v>2020</v>
+      </c>
+      <c r="R18">
+        <v>2020</v>
+      </c>
+      <c r="S18">
+        <v>2020</v>
+      </c>
+      <c r="T18">
+        <v>1941</v>
+      </c>
+      <c r="U18">
+        <v>1941</v>
+      </c>
+      <c r="V18">
+        <v>1941</v>
+      </c>
+      <c r="W18">
+        <v>1823</v>
+      </c>
+      <c r="X18">
+        <v>1823</v>
+      </c>
+      <c r="Y18">
+        <v>1823</v>
+      </c>
+      <c r="Z18">
+        <v>1729</v>
+      </c>
+      <c r="AA18">
+        <v>1729</v>
+      </c>
+      <c r="AB18">
+        <v>1729</v>
+      </c>
+      <c r="AC18">
+        <v>1655</v>
+      </c>
+      <c r="AD18">
+        <v>1655</v>
+      </c>
+      <c r="AE18">
+        <v>1655</v>
+      </c>
+      <c r="AF18">
+        <v>1498</v>
+      </c>
+      <c r="AG18">
+        <v>1498</v>
+      </c>
+      <c r="AH18">
+        <v>1498</v>
+      </c>
+      <c r="AI18">
+        <v>1396</v>
+      </c>
+      <c r="AJ18">
+        <v>1396</v>
+      </c>
+      <c r="AK18">
+        <v>1396</v>
+      </c>
+      <c r="AL18">
+        <v>1289</v>
+      </c>
+      <c r="AM18">
+        <v>1289</v>
+      </c>
+      <c r="AN18">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>2710</v>
+      </c>
+      <c r="C19">
+        <v>2710</v>
+      </c>
+      <c r="D19">
+        <v>2710</v>
+      </c>
+      <c r="E19">
+        <v>2815</v>
+      </c>
+      <c r="F19">
+        <v>2815</v>
+      </c>
+      <c r="G19">
+        <v>2815</v>
+      </c>
+      <c r="H19">
+        <v>2815</v>
+      </c>
+      <c r="I19">
+        <v>2815</v>
+      </c>
+      <c r="J19">
+        <v>2815</v>
+      </c>
+      <c r="K19">
+        <v>2731</v>
+      </c>
+      <c r="L19">
+        <v>2731</v>
+      </c>
+      <c r="M19">
+        <v>2731</v>
+      </c>
+      <c r="N19">
+        <v>2634</v>
+      </c>
+      <c r="O19">
+        <v>2634</v>
+      </c>
+      <c r="P19">
+        <v>2634</v>
+      </c>
+      <c r="Q19">
+        <v>2547</v>
+      </c>
+      <c r="R19">
+        <v>2547</v>
+      </c>
+      <c r="S19">
+        <v>2547</v>
+      </c>
+      <c r="T19">
+        <v>2481</v>
+      </c>
+      <c r="U19">
+        <v>2481</v>
+      </c>
+      <c r="V19">
+        <v>2481</v>
+      </c>
+      <c r="W19">
+        <v>2390</v>
+      </c>
+      <c r="X19">
+        <v>2390</v>
+      </c>
+      <c r="Y19">
+        <v>2390</v>
+      </c>
+      <c r="Z19">
+        <v>2297</v>
+      </c>
+      <c r="AA19">
+        <v>2297</v>
+      </c>
+      <c r="AB19">
+        <v>2297</v>
+      </c>
+      <c r="AC19">
+        <v>2251</v>
+      </c>
+      <c r="AD19">
+        <v>2251</v>
+      </c>
+      <c r="AE19">
+        <v>2251</v>
+      </c>
+      <c r="AF19">
+        <v>2144</v>
+      </c>
+      <c r="AG19">
+        <v>2144</v>
+      </c>
+      <c r="AH19">
+        <v>2144</v>
+      </c>
+      <c r="AI19">
+        <v>2058</v>
+      </c>
+      <c r="AJ19">
+        <v>2058</v>
+      </c>
+      <c r="AK19">
+        <v>2058</v>
+      </c>
+      <c r="AL19">
+        <v>1888</v>
+      </c>
+      <c r="AM19">
+        <v>1888</v>
+      </c>
+      <c r="AN19">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>1234</v>
+      </c>
+      <c r="C20">
+        <v>1234</v>
+      </c>
+      <c r="D20">
+        <v>1234</v>
+      </c>
+      <c r="E20">
+        <v>1286</v>
+      </c>
+      <c r="F20">
+        <v>1286</v>
+      </c>
+      <c r="G20">
+        <v>1286</v>
+      </c>
+      <c r="H20">
+        <v>1286</v>
+      </c>
+      <c r="I20">
+        <v>1286</v>
+      </c>
+      <c r="J20">
+        <v>1286</v>
+      </c>
+      <c r="K20">
+        <v>1247</v>
+      </c>
+      <c r="L20">
+        <v>1247</v>
+      </c>
+      <c r="M20">
+        <v>1247</v>
+      </c>
+      <c r="N20">
+        <v>1170</v>
+      </c>
+      <c r="O20">
+        <v>1170</v>
+      </c>
+      <c r="P20">
+        <v>1170</v>
+      </c>
+      <c r="Q20">
+        <v>1130</v>
+      </c>
+      <c r="R20">
+        <v>1130</v>
+      </c>
+      <c r="S20">
+        <v>1130</v>
+      </c>
+      <c r="T20">
+        <v>1116</v>
+      </c>
+      <c r="U20">
+        <v>1116</v>
+      </c>
+      <c r="V20">
+        <v>1116</v>
+      </c>
+      <c r="W20">
+        <v>1089</v>
+      </c>
+      <c r="X20">
+        <v>1089</v>
+      </c>
+      <c r="Y20">
+        <v>1089</v>
+      </c>
+      <c r="Z20">
+        <v>1062</v>
+      </c>
+      <c r="AA20">
+        <v>1062</v>
+      </c>
+      <c r="AB20">
+        <v>1062</v>
+      </c>
+      <c r="AC20">
+        <v>1047</v>
+      </c>
+      <c r="AD20">
+        <v>1047</v>
+      </c>
+      <c r="AE20">
+        <v>1047</v>
+      </c>
+      <c r="AF20">
+        <v>988</v>
+      </c>
+      <c r="AG20">
+        <v>988</v>
+      </c>
+      <c r="AH20">
+        <v>988</v>
+      </c>
+      <c r="AI20">
+        <v>962</v>
+      </c>
+      <c r="AJ20">
+        <v>962</v>
+      </c>
+      <c r="AK20">
+        <v>962</v>
+      </c>
+      <c r="AL20">
+        <v>932</v>
+      </c>
+      <c r="AM20">
+        <v>932</v>
+      </c>
+      <c r="AN20">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>1342</v>
+      </c>
+      <c r="C21">
+        <v>1342</v>
+      </c>
+      <c r="D21">
+        <v>1342</v>
+      </c>
+      <c r="E21">
+        <v>1432</v>
+      </c>
+      <c r="F21">
+        <v>1432</v>
+      </c>
+      <c r="G21">
+        <v>1432</v>
+      </c>
+      <c r="H21">
+        <v>1432</v>
+      </c>
+      <c r="I21">
+        <v>1432</v>
+      </c>
+      <c r="J21">
+        <v>1432</v>
+      </c>
+      <c r="K21">
+        <v>1372</v>
+      </c>
+      <c r="L21">
+        <v>1372</v>
+      </c>
+      <c r="M21">
+        <v>1372</v>
+      </c>
+      <c r="N21">
+        <v>1333</v>
+      </c>
+      <c r="O21">
+        <v>1333</v>
+      </c>
+      <c r="P21">
+        <v>1333</v>
+      </c>
+      <c r="Q21">
+        <v>1311</v>
+      </c>
+      <c r="R21">
+        <v>1311</v>
+      </c>
+      <c r="S21">
+        <v>1311</v>
+      </c>
+      <c r="T21">
+        <v>1284</v>
+      </c>
+      <c r="U21">
+        <v>1284</v>
+      </c>
+      <c r="V21">
+        <v>1284</v>
+      </c>
+      <c r="W21">
+        <v>1258</v>
+      </c>
+      <c r="X21">
+        <v>1258</v>
+      </c>
+      <c r="Y21">
+        <v>1258</v>
+      </c>
+      <c r="Z21">
+        <v>1220</v>
+      </c>
+      <c r="AA21">
+        <v>1220</v>
+      </c>
+      <c r="AB21">
+        <v>1220</v>
+      </c>
+      <c r="AC21">
+        <v>1203</v>
+      </c>
+      <c r="AD21">
+        <v>1203</v>
+      </c>
+      <c r="AE21">
+        <v>1203</v>
+      </c>
+      <c r="AF21">
+        <v>1133</v>
+      </c>
+      <c r="AG21">
+        <v>1133</v>
+      </c>
+      <c r="AH21">
+        <v>1133</v>
+      </c>
+      <c r="AI21">
+        <v>1088</v>
+      </c>
+      <c r="AJ21">
+        <v>1088</v>
+      </c>
+      <c r="AK21">
+        <v>1088</v>
+      </c>
+      <c r="AL21">
+        <v>1029</v>
+      </c>
+      <c r="AM21">
+        <v>1029</v>
+      </c>
+      <c r="AN21">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>568</v>
+      </c>
+      <c r="C22">
+        <v>568</v>
+      </c>
+      <c r="D22">
+        <v>568</v>
+      </c>
+      <c r="E22">
+        <v>593</v>
+      </c>
+      <c r="F22">
+        <v>593</v>
+      </c>
+      <c r="G22">
+        <v>593</v>
+      </c>
+      <c r="H22">
+        <v>593</v>
+      </c>
+      <c r="I22">
+        <v>593</v>
+      </c>
+      <c r="J22">
+        <v>593</v>
+      </c>
+      <c r="K22">
+        <v>564</v>
+      </c>
+      <c r="L22">
+        <v>564</v>
+      </c>
+      <c r="M22">
+        <v>564</v>
+      </c>
+      <c r="N22">
+        <v>550</v>
+      </c>
+      <c r="O22">
+        <v>550</v>
+      </c>
+      <c r="P22">
+        <v>550</v>
+      </c>
+      <c r="Q22">
+        <v>519</v>
+      </c>
+      <c r="R22">
+        <v>519</v>
+      </c>
+      <c r="S22">
+        <v>519</v>
+      </c>
+      <c r="T22">
+        <v>493</v>
+      </c>
+      <c r="U22">
+        <v>493</v>
+      </c>
+      <c r="V22">
+        <v>493</v>
+      </c>
+      <c r="W22">
+        <v>451</v>
+      </c>
+      <c r="X22">
+        <v>451</v>
+      </c>
+      <c r="Y22">
+        <v>451</v>
+      </c>
+      <c r="Z22">
+        <v>399</v>
+      </c>
+      <c r="AA22">
+        <v>399</v>
+      </c>
+      <c r="AB22">
+        <v>399</v>
+      </c>
+      <c r="AC22">
+        <v>378</v>
+      </c>
+      <c r="AD22">
+        <v>378</v>
+      </c>
+      <c r="AE22">
+        <v>378</v>
+      </c>
+      <c r="AF22">
+        <v>331</v>
+      </c>
+      <c r="AG22">
+        <v>331</v>
+      </c>
+      <c r="AH22">
+        <v>331</v>
+      </c>
+      <c r="AI22">
+        <v>305</v>
+      </c>
+      <c r="AJ22">
+        <v>305</v>
+      </c>
+      <c r="AK22">
+        <v>305</v>
+      </c>
+      <c r="AL22">
+        <v>274</v>
+      </c>
+      <c r="AM22">
+        <v>274</v>
+      </c>
+      <c r="AN22">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>839</v>
+      </c>
+      <c r="C23">
+        <v>839</v>
+      </c>
+      <c r="D23">
+        <v>839</v>
+      </c>
+      <c r="E23">
+        <v>876</v>
+      </c>
+      <c r="F23">
+        <v>876</v>
+      </c>
+      <c r="G23">
+        <v>876</v>
+      </c>
+      <c r="H23">
+        <v>876</v>
+      </c>
+      <c r="I23">
+        <v>876</v>
+      </c>
+      <c r="J23">
+        <v>876</v>
+      </c>
+      <c r="K23">
+        <v>825</v>
+      </c>
+      <c r="L23">
+        <v>825</v>
+      </c>
+      <c r="M23">
+        <v>825</v>
+      </c>
+      <c r="N23">
+        <v>797</v>
+      </c>
+      <c r="O23">
+        <v>797</v>
+      </c>
+      <c r="P23">
+        <v>797</v>
+      </c>
+      <c r="Q23">
+        <v>762</v>
+      </c>
+      <c r="R23">
+        <v>762</v>
+      </c>
+      <c r="S23">
+        <v>762</v>
+      </c>
+      <c r="T23">
+        <v>731</v>
+      </c>
+      <c r="U23">
+        <v>731</v>
+      </c>
+      <c r="V23">
+        <v>731</v>
+      </c>
+      <c r="W23">
+        <v>682</v>
+      </c>
+      <c r="X23">
+        <v>682</v>
+      </c>
+      <c r="Y23">
+        <v>682</v>
+      </c>
+      <c r="Z23">
+        <v>609</v>
+      </c>
+      <c r="AA23">
+        <v>609</v>
+      </c>
+      <c r="AB23">
+        <v>609</v>
+      </c>
+      <c r="AC23">
+        <v>554</v>
+      </c>
+      <c r="AD23">
+        <v>554</v>
+      </c>
+      <c r="AE23">
+        <v>554</v>
+      </c>
+      <c r="AF23">
+        <v>484</v>
+      </c>
+      <c r="AG23">
+        <v>484</v>
+      </c>
+      <c r="AH23">
+        <v>484</v>
+      </c>
+      <c r="AI23">
+        <v>430</v>
+      </c>
+      <c r="AJ23">
+        <v>430</v>
+      </c>
+      <c r="AK23">
+        <v>430</v>
+      </c>
+      <c r="AL23">
+        <v>385</v>
+      </c>
+      <c r="AM23">
+        <v>385</v>
+      </c>
+      <c r="AN23">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>969</v>
+      </c>
+      <c r="C24">
+        <v>969</v>
+      </c>
+      <c r="D24">
+        <v>969</v>
+      </c>
+      <c r="E24">
+        <v>1078</v>
+      </c>
+      <c r="F24">
+        <v>1078</v>
+      </c>
+      <c r="G24">
+        <v>1078</v>
+      </c>
+      <c r="H24">
+        <v>1078</v>
+      </c>
+      <c r="I24">
+        <v>1078</v>
+      </c>
+      <c r="J24">
+        <v>1078</v>
+      </c>
+      <c r="K24">
+        <v>1044</v>
+      </c>
+      <c r="L24">
+        <v>1044</v>
+      </c>
+      <c r="M24">
+        <v>1044</v>
+      </c>
+      <c r="N24">
+        <v>1020</v>
+      </c>
+      <c r="O24">
+        <v>1020</v>
+      </c>
+      <c r="P24">
+        <v>1020</v>
+      </c>
+      <c r="Q24">
+        <v>988</v>
+      </c>
+      <c r="R24">
+        <v>988</v>
+      </c>
+      <c r="S24">
+        <v>988</v>
+      </c>
+      <c r="T24">
+        <v>963</v>
+      </c>
+      <c r="U24">
+        <v>963</v>
+      </c>
+      <c r="V24">
+        <v>963</v>
+      </c>
+      <c r="W24">
+        <v>925</v>
+      </c>
+      <c r="X24">
+        <v>925</v>
+      </c>
+      <c r="Y24">
+        <v>925</v>
+      </c>
+      <c r="Z24">
+        <v>862</v>
+      </c>
+      <c r="AA24">
+        <v>862</v>
+      </c>
+      <c r="AB24">
+        <v>862</v>
+      </c>
+      <c r="AC24">
+        <v>834</v>
+      </c>
+      <c r="AD24">
+        <v>834</v>
+      </c>
+      <c r="AE24">
+        <v>834</v>
+      </c>
+      <c r="AF24">
+        <v>763</v>
+      </c>
+      <c r="AG24">
+        <v>763</v>
+      </c>
+      <c r="AH24">
+        <v>763</v>
+      </c>
+      <c r="AI24">
+        <v>685</v>
+      </c>
+      <c r="AJ24">
+        <v>685</v>
+      </c>
+      <c r="AK24">
+        <v>685</v>
+      </c>
+      <c r="AL24">
+        <v>594</v>
+      </c>
+      <c r="AM24">
+        <v>594</v>
+      </c>
+      <c r="AN24">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>551</v>
+      </c>
+      <c r="C25">
+        <v>551</v>
+      </c>
+      <c r="D25">
+        <v>551</v>
+      </c>
+      <c r="E25">
+        <v>560</v>
+      </c>
+      <c r="F25">
+        <v>560</v>
+      </c>
+      <c r="G25">
+        <v>560</v>
+      </c>
+      <c r="H25">
+        <v>560</v>
+      </c>
+      <c r="I25">
+        <v>560</v>
+      </c>
+      <c r="J25">
+        <v>560</v>
+      </c>
+      <c r="K25">
+        <v>533</v>
+      </c>
+      <c r="L25">
+        <v>533</v>
+      </c>
+      <c r="M25">
+        <v>533</v>
+      </c>
+      <c r="N25">
+        <v>500</v>
+      </c>
+      <c r="O25">
+        <v>500</v>
+      </c>
+      <c r="P25">
+        <v>500</v>
+      </c>
+      <c r="Q25">
+        <v>449</v>
+      </c>
+      <c r="R25">
+        <v>449</v>
+      </c>
+      <c r="S25">
+        <v>449</v>
+      </c>
+      <c r="T25">
+        <v>430</v>
+      </c>
+      <c r="U25">
+        <v>430</v>
+      </c>
+      <c r="V25">
+        <v>430</v>
+      </c>
+      <c r="W25">
+        <v>410</v>
+      </c>
+      <c r="X25">
+        <v>410</v>
+      </c>
+      <c r="Y25">
+        <v>410</v>
+      </c>
+      <c r="Z25">
+        <v>389</v>
+      </c>
+      <c r="AA25">
+        <v>389</v>
+      </c>
+      <c r="AB25">
+        <v>389</v>
+      </c>
+      <c r="AC25">
+        <v>380</v>
+      </c>
+      <c r="AD25">
+        <v>380</v>
+      </c>
+      <c r="AE25">
+        <v>380</v>
+      </c>
+      <c r="AF25">
+        <v>342</v>
+      </c>
+      <c r="AG25">
+        <v>342</v>
+      </c>
+      <c r="AH25">
+        <v>342</v>
+      </c>
+      <c r="AI25">
+        <v>321</v>
+      </c>
+      <c r="AJ25">
+        <v>321</v>
+      </c>
+      <c r="AK25">
+        <v>321</v>
+      </c>
+      <c r="AL25">
+        <v>310</v>
+      </c>
+      <c r="AM25">
+        <v>310</v>
+      </c>
+      <c r="AN25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>495</v>
+      </c>
+      <c r="C26">
+        <v>495</v>
+      </c>
+      <c r="D26">
+        <v>495</v>
+      </c>
+      <c r="E26">
+        <v>529</v>
+      </c>
+      <c r="F26">
+        <v>529</v>
+      </c>
+      <c r="G26">
+        <v>529</v>
+      </c>
+      <c r="H26">
+        <v>529</v>
+      </c>
+      <c r="I26">
+        <v>529</v>
+      </c>
+      <c r="J26">
+        <v>529</v>
+      </c>
+      <c r="K26">
+        <v>526</v>
+      </c>
+      <c r="L26">
+        <v>526</v>
+      </c>
+      <c r="M26">
+        <v>526</v>
+      </c>
+      <c r="N26">
+        <v>521</v>
+      </c>
+      <c r="O26">
+        <v>521</v>
+      </c>
+      <c r="P26">
+        <v>521</v>
+      </c>
+      <c r="Q26">
+        <v>518</v>
+      </c>
+      <c r="R26">
+        <v>518</v>
+      </c>
+      <c r="S26">
+        <v>518</v>
+      </c>
+      <c r="T26">
+        <v>513</v>
+      </c>
+      <c r="U26">
+        <v>513</v>
+      </c>
+      <c r="V26">
+        <v>513</v>
+      </c>
+      <c r="W26">
+        <v>509</v>
+      </c>
+      <c r="X26">
+        <v>509</v>
+      </c>
+      <c r="Y26">
+        <v>509</v>
+      </c>
+      <c r="Z26">
+        <v>496</v>
+      </c>
+      <c r="AA26">
+        <v>496</v>
+      </c>
+      <c r="AB26">
+        <v>496</v>
+      </c>
+      <c r="AC26">
+        <v>485</v>
+      </c>
+      <c r="AD26">
+        <v>485</v>
+      </c>
+      <c r="AE26">
+        <v>485</v>
+      </c>
+      <c r="AF26">
+        <v>451</v>
+      </c>
+      <c r="AG26">
+        <v>451</v>
+      </c>
+      <c r="AH26">
+        <v>451</v>
+      </c>
+      <c r="AI26">
+        <v>381</v>
+      </c>
+      <c r="AJ26">
+        <v>381</v>
+      </c>
+      <c r="AK26">
+        <v>381</v>
+      </c>
+      <c r="AL26">
+        <v>246</v>
+      </c>
+      <c r="AM26">
+        <v>246</v>
+      </c>
+      <c r="AN26">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>834</v>
+      </c>
+      <c r="C27">
+        <v>834</v>
+      </c>
+      <c r="D27">
+        <v>834</v>
+      </c>
+      <c r="E27">
+        <v>859</v>
+      </c>
+      <c r="F27">
+        <v>859</v>
+      </c>
+      <c r="G27">
+        <v>859</v>
+      </c>
+      <c r="H27">
+        <v>859</v>
+      </c>
+      <c r="I27">
+        <v>859</v>
+      </c>
+      <c r="J27">
+        <v>859</v>
+      </c>
+      <c r="K27">
+        <v>848</v>
+      </c>
+      <c r="L27">
+        <v>848</v>
+      </c>
+      <c r="M27">
+        <v>848</v>
+      </c>
+      <c r="N27">
+        <v>823</v>
+      </c>
+      <c r="O27">
+        <v>823</v>
+      </c>
+      <c r="P27">
+        <v>823</v>
+      </c>
+      <c r="Q27">
+        <v>798</v>
+      </c>
+      <c r="R27">
+        <v>798</v>
+      </c>
+      <c r="S27">
+        <v>798</v>
+      </c>
+      <c r="T27">
+        <v>779</v>
+      </c>
+      <c r="U27">
+        <v>779</v>
+      </c>
+      <c r="V27">
+        <v>779</v>
+      </c>
+      <c r="W27">
+        <v>756</v>
+      </c>
+      <c r="X27">
+        <v>756</v>
+      </c>
+      <c r="Y27">
+        <v>756</v>
+      </c>
+      <c r="Z27">
+        <v>745</v>
+      </c>
+      <c r="AA27">
+        <v>745</v>
+      </c>
+      <c r="AB27">
+        <v>745</v>
+      </c>
+      <c r="AC27">
         <v>739</v>
       </c>
-      <c r="C2">
-        <v>740</v>
-      </c>
-      <c r="D2">
-        <v>741</v>
-      </c>
-      <c r="E2">
-        <v>741</v>
-      </c>
-      <c r="F2">
-        <v>742</v>
-      </c>
-      <c r="G2">
+      <c r="AD27">
+        <v>739</v>
+      </c>
+      <c r="AE27">
+        <v>739</v>
+      </c>
+      <c r="AF27">
+        <v>691</v>
+      </c>
+      <c r="AG27">
+        <v>691</v>
+      </c>
+      <c r="AH27">
+        <v>691</v>
+      </c>
+      <c r="AI27">
+        <v>659</v>
+      </c>
+      <c r="AJ27">
+        <v>659</v>
+      </c>
+      <c r="AK27">
+        <v>659</v>
+      </c>
+      <c r="AL27">
+        <v>628</v>
+      </c>
+      <c r="AM27">
+        <v>628</v>
+      </c>
+      <c r="AN27">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>565</v>
+      </c>
+      <c r="C28">
+        <v>565</v>
+      </c>
+      <c r="D28">
+        <v>565</v>
+      </c>
+      <c r="E28">
+        <v>577</v>
+      </c>
+      <c r="F28">
+        <v>577</v>
+      </c>
+      <c r="G28">
+        <v>577</v>
+      </c>
+      <c r="H28">
+        <v>577</v>
+      </c>
+      <c r="I28">
+        <v>577</v>
+      </c>
+      <c r="J28">
+        <v>577</v>
+      </c>
+      <c r="K28">
+        <v>560</v>
+      </c>
+      <c r="L28">
+        <v>560</v>
+      </c>
+      <c r="M28">
+        <v>560</v>
+      </c>
+      <c r="N28">
+        <v>552</v>
+      </c>
+      <c r="O28">
+        <v>552</v>
+      </c>
+      <c r="P28">
+        <v>552</v>
+      </c>
+      <c r="Q28">
+        <v>536</v>
+      </c>
+      <c r="R28">
+        <v>536</v>
+      </c>
+      <c r="S28">
+        <v>536</v>
+      </c>
+      <c r="T28">
+        <v>534</v>
+      </c>
+      <c r="U28">
+        <v>534</v>
+      </c>
+      <c r="V28">
+        <v>534</v>
+      </c>
+      <c r="W28">
+        <v>515</v>
+      </c>
+      <c r="X28">
+        <v>515</v>
+      </c>
+      <c r="Y28">
+        <v>515</v>
+      </c>
+      <c r="Z28">
+        <v>506</v>
+      </c>
+      <c r="AA28">
+        <v>506</v>
+      </c>
+      <c r="AB28">
+        <v>506</v>
+      </c>
+      <c r="AC28">
+        <v>503</v>
+      </c>
+      <c r="AD28">
+        <v>503</v>
+      </c>
+      <c r="AE28">
+        <v>503</v>
+      </c>
+      <c r="AF28">
+        <v>481</v>
+      </c>
+      <c r="AG28">
+        <v>481</v>
+      </c>
+      <c r="AH28">
+        <v>481</v>
+      </c>
+      <c r="AI28">
+        <v>476</v>
+      </c>
+      <c r="AJ28">
+        <v>476</v>
+      </c>
+      <c r="AK28">
+        <v>476</v>
+      </c>
+      <c r="AL28">
+        <v>459</v>
+      </c>
+      <c r="AM28">
+        <v>459</v>
+      </c>
+      <c r="AN28">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>2281</v>
+      </c>
+      <c r="C29">
+        <v>2281</v>
+      </c>
+      <c r="D29">
+        <v>2281</v>
+      </c>
+      <c r="E29">
+        <v>2492</v>
+      </c>
+      <c r="F29">
+        <v>2492</v>
+      </c>
+      <c r="G29">
+        <v>2492</v>
+      </c>
+      <c r="H29">
+        <v>2492</v>
+      </c>
+      <c r="I29">
+        <v>2492</v>
+      </c>
+      <c r="J29">
+        <v>2492</v>
+      </c>
+      <c r="K29">
+        <v>2438</v>
+      </c>
+      <c r="L29">
+        <v>2438</v>
+      </c>
+      <c r="M29">
+        <v>2438</v>
+      </c>
+      <c r="N29">
+        <v>2361</v>
+      </c>
+      <c r="O29">
+        <v>2361</v>
+      </c>
+      <c r="P29">
+        <v>2361</v>
+      </c>
+      <c r="Q29">
+        <v>2288</v>
+      </c>
+      <c r="R29">
+        <v>2288</v>
+      </c>
+      <c r="S29">
+        <v>2288</v>
+      </c>
+      <c r="T29">
+        <v>2223</v>
+      </c>
+      <c r="U29">
+        <v>2223</v>
+      </c>
+      <c r="V29">
+        <v>2223</v>
+      </c>
+      <c r="W29">
+        <v>2151</v>
+      </c>
+      <c r="X29">
+        <v>2151</v>
+      </c>
+      <c r="Y29">
+        <v>2151</v>
+      </c>
+      <c r="Z29">
+        <v>2077</v>
+      </c>
+      <c r="AA29">
+        <v>2077</v>
+      </c>
+      <c r="AB29">
+        <v>2077</v>
+      </c>
+      <c r="AC29">
+        <v>2017</v>
+      </c>
+      <c r="AD29">
+        <v>2017</v>
+      </c>
+      <c r="AE29">
+        <v>2017</v>
+      </c>
+      <c r="AF29">
+        <v>1910</v>
+      </c>
+      <c r="AG29">
+        <v>1910</v>
+      </c>
+      <c r="AH29">
+        <v>1910</v>
+      </c>
+      <c r="AI29">
+        <v>1886</v>
+      </c>
+      <c r="AJ29">
+        <v>1886</v>
+      </c>
+      <c r="AK29">
+        <v>1886</v>
+      </c>
+      <c r="AL29">
+        <v>1778</v>
+      </c>
+      <c r="AM29">
+        <v>1778</v>
+      </c>
+      <c r="AN29">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>889</v>
+      </c>
+      <c r="C30">
+        <v>889</v>
+      </c>
+      <c r="D30">
+        <v>889</v>
+      </c>
+      <c r="E30">
+        <v>900</v>
+      </c>
+      <c r="F30">
+        <v>900</v>
+      </c>
+      <c r="G30">
+        <v>900</v>
+      </c>
+      <c r="H30">
+        <v>900</v>
+      </c>
+      <c r="I30">
+        <v>900</v>
+      </c>
+      <c r="J30">
+        <v>900</v>
+      </c>
+      <c r="K30">
+        <v>829</v>
+      </c>
+      <c r="L30">
+        <v>829</v>
+      </c>
+      <c r="M30">
+        <v>829</v>
+      </c>
+      <c r="N30">
+        <v>794</v>
+      </c>
+      <c r="O30">
+        <v>794</v>
+      </c>
+      <c r="P30">
+        <v>794</v>
+      </c>
+      <c r="Q30">
+        <v>769</v>
+      </c>
+      <c r="R30">
+        <v>769</v>
+      </c>
+      <c r="S30">
+        <v>769</v>
+      </c>
+      <c r="T30">
+        <v>755</v>
+      </c>
+      <c r="U30">
+        <v>755</v>
+      </c>
+      <c r="V30">
+        <v>755</v>
+      </c>
+      <c r="W30">
+        <v>745</v>
+      </c>
+      <c r="X30">
+        <v>745</v>
+      </c>
+      <c r="Y30">
+        <v>745</v>
+      </c>
+      <c r="Z30">
+        <v>714</v>
+      </c>
+      <c r="AA30">
+        <v>714</v>
+      </c>
+      <c r="AB30">
+        <v>714</v>
+      </c>
+      <c r="AC30">
+        <v>699</v>
+      </c>
+      <c r="AD30">
+        <v>699</v>
+      </c>
+      <c r="AE30">
+        <v>699</v>
+      </c>
+      <c r="AF30">
+        <v>655</v>
+      </c>
+      <c r="AG30">
+        <v>655</v>
+      </c>
+      <c r="AH30">
+        <v>655</v>
+      </c>
+      <c r="AI30">
+        <v>631</v>
+      </c>
+      <c r="AJ30">
+        <v>631</v>
+      </c>
+      <c r="AK30">
+        <v>631</v>
+      </c>
+      <c r="AL30">
+        <v>600</v>
+      </c>
+      <c r="AM30">
+        <v>600</v>
+      </c>
+      <c r="AN30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>1474</v>
+      </c>
+      <c r="C31">
+        <v>1474</v>
+      </c>
+      <c r="D31">
+        <v>1474</v>
+      </c>
+      <c r="E31">
+        <v>1524</v>
+      </c>
+      <c r="F31">
+        <v>1524</v>
+      </c>
+      <c r="G31">
+        <v>1524</v>
+      </c>
+      <c r="H31">
+        <v>1524</v>
+      </c>
+      <c r="I31">
+        <v>1524</v>
+      </c>
+      <c r="J31">
+        <v>1524</v>
+      </c>
+      <c r="K31">
+        <v>1319</v>
+      </c>
+      <c r="L31">
+        <v>1319</v>
+      </c>
+      <c r="M31">
+        <v>1319</v>
+      </c>
+      <c r="N31">
+        <v>1049</v>
+      </c>
+      <c r="O31">
+        <v>1049</v>
+      </c>
+      <c r="P31">
+        <v>1049</v>
+      </c>
+      <c r="Q31">
+        <v>945</v>
+      </c>
+      <c r="R31">
+        <v>945</v>
+      </c>
+      <c r="S31">
+        <v>945</v>
+      </c>
+      <c r="T31">
+        <v>894</v>
+      </c>
+      <c r="U31">
+        <v>894</v>
+      </c>
+      <c r="V31">
+        <v>894</v>
+      </c>
+      <c r="W31">
+        <v>797</v>
+      </c>
+      <c r="X31">
+        <v>797</v>
+      </c>
+      <c r="Y31">
+        <v>797</v>
+      </c>
+      <c r="Z31">
+        <v>672</v>
+      </c>
+      <c r="AA31">
+        <v>672</v>
+      </c>
+      <c r="AB31">
+        <v>672</v>
+      </c>
+      <c r="AC31">
+        <v>595</v>
+      </c>
+      <c r="AD31">
+        <v>595</v>
+      </c>
+      <c r="AE31">
+        <v>595</v>
+      </c>
+      <c r="AF31">
+        <v>518</v>
+      </c>
+      <c r="AG31">
+        <v>518</v>
+      </c>
+      <c r="AH31">
+        <v>518</v>
+      </c>
+      <c r="AI31">
+        <v>466</v>
+      </c>
+      <c r="AJ31">
+        <v>466</v>
+      </c>
+      <c r="AK31">
+        <v>466</v>
+      </c>
+      <c r="AL31">
+        <v>443</v>
+      </c>
+      <c r="AM31">
+        <v>443</v>
+      </c>
+      <c r="AN31">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>1062</v>
+      </c>
+      <c r="C32">
+        <v>1062</v>
+      </c>
+      <c r="D32">
+        <v>1062</v>
+      </c>
+      <c r="E32">
+        <v>1107</v>
+      </c>
+      <c r="F32">
+        <v>1107</v>
+      </c>
+      <c r="G32">
+        <v>1107</v>
+      </c>
+      <c r="H32">
+        <v>1107</v>
+      </c>
+      <c r="I32">
+        <v>1107</v>
+      </c>
+      <c r="J32">
+        <v>1107</v>
+      </c>
+      <c r="K32">
+        <v>1141</v>
+      </c>
+      <c r="L32">
+        <v>1141</v>
+      </c>
+      <c r="M32">
+        <v>1141</v>
+      </c>
+      <c r="N32">
+        <v>1274</v>
+      </c>
+      <c r="O32">
+        <v>1274</v>
+      </c>
+      <c r="P32">
+        <v>1274</v>
+      </c>
+      <c r="Q32">
+        <v>1271</v>
+      </c>
+      <c r="R32">
+        <v>1271</v>
+      </c>
+      <c r="S32">
+        <v>1271</v>
+      </c>
+      <c r="T32">
+        <v>1241</v>
+      </c>
+      <c r="U32">
+        <v>1241</v>
+      </c>
+      <c r="V32">
+        <v>1241</v>
+      </c>
+      <c r="W32">
+        <v>1237</v>
+      </c>
+      <c r="X32">
+        <v>1237</v>
+      </c>
+      <c r="Y32">
+        <v>1237</v>
+      </c>
+      <c r="Z32">
+        <v>1255</v>
+      </c>
+      <c r="AA32">
+        <v>1255</v>
+      </c>
+      <c r="AB32">
+        <v>1255</v>
+      </c>
+      <c r="AC32">
+        <v>1249</v>
+      </c>
+      <c r="AD32">
+        <v>1249</v>
+      </c>
+      <c r="AE32">
+        <v>1249</v>
+      </c>
+      <c r="AF32">
+        <v>1180</v>
+      </c>
+      <c r="AG32">
+        <v>1180</v>
+      </c>
+      <c r="AH32">
+        <v>1180</v>
+      </c>
+      <c r="AI32">
+        <v>1143</v>
+      </c>
+      <c r="AJ32">
+        <v>1143</v>
+      </c>
+      <c r="AK32">
+        <v>1143</v>
+      </c>
+      <c r="AL32">
+        <v>1057</v>
+      </c>
+      <c r="AM32">
+        <v>1057</v>
+      </c>
+      <c r="AN32">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>2548</v>
+      </c>
+      <c r="C33">
+        <v>2548</v>
+      </c>
+      <c r="D33">
+        <v>2548</v>
+      </c>
+      <c r="E33">
+        <v>2646</v>
+      </c>
+      <c r="F33">
+        <v>2646</v>
+      </c>
+      <c r="G33">
+        <v>2646</v>
+      </c>
+      <c r="H33">
+        <v>2646</v>
+      </c>
+      <c r="I33">
+        <v>2646</v>
+      </c>
+      <c r="J33">
+        <v>2646</v>
+      </c>
+      <c r="K33">
+        <v>2596</v>
+      </c>
+      <c r="L33">
+        <v>2596</v>
+      </c>
+      <c r="M33">
+        <v>2596</v>
+      </c>
+      <c r="N33">
+        <v>2575</v>
+      </c>
+      <c r="O33">
+        <v>2575</v>
+      </c>
+      <c r="P33">
+        <v>2575</v>
+      </c>
+      <c r="Q33">
+        <v>2530</v>
+      </c>
+      <c r="R33">
+        <v>2530</v>
+      </c>
+      <c r="S33">
+        <v>2530</v>
+      </c>
+      <c r="T33">
+        <v>2501</v>
+      </c>
+      <c r="U33">
+        <v>2501</v>
+      </c>
+      <c r="V33">
+        <v>2501</v>
+      </c>
+      <c r="W33">
+        <v>2447</v>
+      </c>
+      <c r="X33">
+        <v>2447</v>
+      </c>
+      <c r="Y33">
+        <v>2447</v>
+      </c>
+      <c r="Z33">
+        <v>2398</v>
+      </c>
+      <c r="AA33">
+        <v>2398</v>
+      </c>
+      <c r="AB33">
+        <v>2398</v>
+      </c>
+      <c r="AC33">
+        <v>2392</v>
+      </c>
+      <c r="AD33">
+        <v>2392</v>
+      </c>
+      <c r="AE33">
+        <v>2392</v>
+      </c>
+      <c r="AF33">
+        <v>2244</v>
+      </c>
+      <c r="AG33">
+        <v>2244</v>
+      </c>
+      <c r="AH33">
+        <v>2244</v>
+      </c>
+      <c r="AI33">
+        <v>2166</v>
+      </c>
+      <c r="AJ33">
+        <v>2166</v>
+      </c>
+      <c r="AK33">
+        <v>2166</v>
+      </c>
+      <c r="AL33">
+        <v>2117</v>
+      </c>
+      <c r="AM33">
+        <v>2117</v>
+      </c>
+      <c r="AN33">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>762</v>
+      </c>
+      <c r="C34">
+        <v>762</v>
+      </c>
+      <c r="D34">
+        <v>762</v>
+      </c>
+      <c r="E34">
+        <v>782</v>
+      </c>
+      <c r="F34">
+        <v>782</v>
+      </c>
+      <c r="G34">
+        <v>782</v>
+      </c>
+      <c r="H34">
+        <v>782</v>
+      </c>
+      <c r="I34">
+        <v>782</v>
+      </c>
+      <c r="J34">
+        <v>782</v>
+      </c>
+      <c r="K34">
+        <v>771</v>
+      </c>
+      <c r="L34">
+        <v>771</v>
+      </c>
+      <c r="M34">
+        <v>771</v>
+      </c>
+      <c r="N34">
+        <v>760</v>
+      </c>
+      <c r="O34">
+        <v>760</v>
+      </c>
+      <c r="P34">
+        <v>760</v>
+      </c>
+      <c r="Q34">
+        <v>737</v>
+      </c>
+      <c r="R34">
+        <v>737</v>
+      </c>
+      <c r="S34">
+        <v>737</v>
+      </c>
+      <c r="T34">
+        <v>723</v>
+      </c>
+      <c r="U34">
+        <v>723</v>
+      </c>
+      <c r="V34">
+        <v>723</v>
+      </c>
+      <c r="W34">
+        <v>698</v>
+      </c>
+      <c r="X34">
+        <v>698</v>
+      </c>
+      <c r="Y34">
+        <v>698</v>
+      </c>
+      <c r="Z34">
+        <v>679</v>
+      </c>
+      <c r="AA34">
+        <v>679</v>
+      </c>
+      <c r="AB34">
+        <v>679</v>
+      </c>
+      <c r="AC34">
+        <v>667</v>
+      </c>
+      <c r="AD34">
+        <v>667</v>
+      </c>
+      <c r="AE34">
+        <v>667</v>
+      </c>
+      <c r="AF34">
+        <v>626</v>
+      </c>
+      <c r="AG34">
+        <v>626</v>
+      </c>
+      <c r="AH34">
+        <v>626</v>
+      </c>
+      <c r="AI34">
+        <v>573</v>
+      </c>
+      <c r="AJ34">
+        <v>573</v>
+      </c>
+      <c r="AK34">
+        <v>573</v>
+      </c>
+      <c r="AL34">
+        <v>492</v>
+      </c>
+      <c r="AM34">
+        <v>492</v>
+      </c>
+      <c r="AN34">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>853</v>
+      </c>
+      <c r="C35">
+        <v>853</v>
+      </c>
+      <c r="D35">
+        <v>853</v>
+      </c>
+      <c r="E35">
+        <v>883</v>
+      </c>
+      <c r="F35">
+        <v>883</v>
+      </c>
+      <c r="G35">
+        <v>883</v>
+      </c>
+      <c r="H35">
+        <v>883</v>
+      </c>
+      <c r="I35">
+        <v>883</v>
+      </c>
+      <c r="J35">
+        <v>883</v>
+      </c>
+      <c r="K35">
+        <v>853</v>
+      </c>
+      <c r="L35">
+        <v>853</v>
+      </c>
+      <c r="M35">
+        <v>853</v>
+      </c>
+      <c r="N35">
+        <v>843</v>
+      </c>
+      <c r="O35">
+        <v>843</v>
+      </c>
+      <c r="P35">
+        <v>843</v>
+      </c>
+      <c r="Q35">
+        <v>840</v>
+      </c>
+      <c r="R35">
+        <v>840</v>
+      </c>
+      <c r="S35">
+        <v>840</v>
+      </c>
+      <c r="T35">
+        <v>829</v>
+      </c>
+      <c r="U35">
+        <v>829</v>
+      </c>
+      <c r="V35">
+        <v>829</v>
+      </c>
+      <c r="W35">
+        <v>819</v>
+      </c>
+      <c r="X35">
+        <v>819</v>
+      </c>
+      <c r="Y35">
+        <v>819</v>
+      </c>
+      <c r="Z35">
+        <v>814</v>
+      </c>
+      <c r="AA35">
+        <v>814</v>
+      </c>
+      <c r="AB35">
+        <v>814</v>
+      </c>
+      <c r="AC35">
+        <v>811</v>
+      </c>
+      <c r="AD35">
+        <v>811</v>
+      </c>
+      <c r="AE35">
+        <v>811</v>
+      </c>
+      <c r="AF35">
+        <v>785</v>
+      </c>
+      <c r="AG35">
+        <v>785</v>
+      </c>
+      <c r="AH35">
+        <v>785</v>
+      </c>
+      <c r="AI35">
+        <v>776</v>
+      </c>
+      <c r="AJ35">
+        <v>776</v>
+      </c>
+      <c r="AK35">
+        <v>776</v>
+      </c>
+      <c r="AL35">
+        <v>753</v>
+      </c>
+      <c r="AM35">
+        <v>753</v>
+      </c>
+      <c r="AN35">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>1956</v>
+      </c>
+      <c r="C36">
+        <v>1956</v>
+      </c>
+      <c r="D36">
+        <v>1956</v>
+      </c>
+      <c r="E36">
+        <v>2027</v>
+      </c>
+      <c r="F36">
+        <v>2027</v>
+      </c>
+      <c r="G36">
+        <v>2027</v>
+      </c>
+      <c r="H36">
+        <v>2027</v>
+      </c>
+      <c r="I36">
+        <v>2027</v>
+      </c>
+      <c r="J36">
+        <v>2027</v>
+      </c>
+      <c r="K36">
+        <v>2027</v>
+      </c>
+      <c r="L36">
+        <v>2027</v>
+      </c>
+      <c r="M36">
+        <v>2027</v>
+      </c>
+      <c r="N36">
+        <v>2008</v>
+      </c>
+      <c r="O36">
+        <v>2008</v>
+      </c>
+      <c r="P36">
+        <v>2008</v>
+      </c>
+      <c r="Q36">
+        <v>1982</v>
+      </c>
+      <c r="R36">
+        <v>1982</v>
+      </c>
+      <c r="S36">
+        <v>1982</v>
+      </c>
+      <c r="T36">
+        <v>1969</v>
+      </c>
+      <c r="U36">
+        <v>1969</v>
+      </c>
+      <c r="V36">
+        <v>1969</v>
+      </c>
+      <c r="W36">
+        <v>1939</v>
+      </c>
+      <c r="X36">
+        <v>1939</v>
+      </c>
+      <c r="Y36">
+        <v>1939</v>
+      </c>
+      <c r="Z36">
+        <v>1912</v>
+      </c>
+      <c r="AA36">
+        <v>1912</v>
+      </c>
+      <c r="AB36">
+        <v>1912</v>
+      </c>
+      <c r="AC36">
+        <v>1906</v>
+      </c>
+      <c r="AD36">
+        <v>1906</v>
+      </c>
+      <c r="AE36">
+        <v>1906</v>
+      </c>
+      <c r="AF36">
+        <v>1818</v>
+      </c>
+      <c r="AG36">
+        <v>1818</v>
+      </c>
+      <c r="AH36">
+        <v>1818</v>
+      </c>
+      <c r="AI36">
+        <v>1784</v>
+      </c>
+      <c r="AJ36">
+        <v>1784</v>
+      </c>
+      <c r="AK36">
+        <v>1784</v>
+      </c>
+      <c r="AL36">
+        <v>1721</v>
+      </c>
+      <c r="AM36">
+        <v>1721</v>
+      </c>
+      <c r="AN36">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>1341</v>
+      </c>
+      <c r="C37">
+        <v>1341</v>
+      </c>
+      <c r="D37">
+        <v>1341</v>
+      </c>
+      <c r="E37">
+        <v>1414</v>
+      </c>
+      <c r="F37">
+        <v>1414</v>
+      </c>
+      <c r="G37">
+        <v>1414</v>
+      </c>
+      <c r="H37">
+        <v>1414</v>
+      </c>
+      <c r="I37">
+        <v>1414</v>
+      </c>
+      <c r="J37">
+        <v>1414</v>
+      </c>
+      <c r="K37">
+        <v>1359</v>
+      </c>
+      <c r="L37">
+        <v>1359</v>
+      </c>
+      <c r="M37">
+        <v>1359</v>
+      </c>
+      <c r="N37">
+        <v>1326</v>
+      </c>
+      <c r="O37">
+        <v>1326</v>
+      </c>
+      <c r="P37">
+        <v>1326</v>
+      </c>
+      <c r="Q37">
+        <v>1262</v>
+      </c>
+      <c r="R37">
+        <v>1262</v>
+      </c>
+      <c r="S37">
+        <v>1262</v>
+      </c>
+      <c r="T37">
+        <v>1217</v>
+      </c>
+      <c r="U37">
+        <v>1217</v>
+      </c>
+      <c r="V37">
+        <v>1217</v>
+      </c>
+      <c r="W37">
+        <v>1181</v>
+      </c>
+      <c r="X37">
+        <v>1181</v>
+      </c>
+      <c r="Y37">
+        <v>1181</v>
+      </c>
+      <c r="Z37">
+        <v>1119</v>
+      </c>
+      <c r="AA37">
+        <v>1119</v>
+      </c>
+      <c r="AB37">
+        <v>1119</v>
+      </c>
+      <c r="AC37">
+        <v>1083</v>
+      </c>
+      <c r="AD37">
+        <v>1083</v>
+      </c>
+      <c r="AE37">
+        <v>1083</v>
+      </c>
+      <c r="AF37">
+        <v>960</v>
+      </c>
+      <c r="AG37">
+        <v>960</v>
+      </c>
+      <c r="AH37">
+        <v>960</v>
+      </c>
+      <c r="AI37">
+        <v>901</v>
+      </c>
+      <c r="AJ37">
+        <v>901</v>
+      </c>
+      <c r="AK37">
+        <v>901</v>
+      </c>
+      <c r="AL37">
+        <v>790</v>
+      </c>
+      <c r="AM37">
+        <v>790</v>
+      </c>
+      <c r="AN37">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>869</v>
+      </c>
+      <c r="C38">
+        <v>869</v>
+      </c>
+      <c r="D38">
+        <v>869</v>
+      </c>
+      <c r="E38">
+        <v>877</v>
+      </c>
+      <c r="F38">
+        <v>877</v>
+      </c>
+      <c r="G38">
+        <v>877</v>
+      </c>
+      <c r="H38">
+        <v>877</v>
+      </c>
+      <c r="I38">
+        <v>877</v>
+      </c>
+      <c r="J38">
+        <v>877</v>
+      </c>
+      <c r="K38">
+        <v>844</v>
+      </c>
+      <c r="L38">
+        <v>844</v>
+      </c>
+      <c r="M38">
+        <v>844</v>
+      </c>
+      <c r="N38">
+        <v>805</v>
+      </c>
+      <c r="O38">
+        <v>805</v>
+      </c>
+      <c r="P38">
+        <v>805</v>
+      </c>
+      <c r="Q38">
+        <v>772</v>
+      </c>
+      <c r="R38">
+        <v>772</v>
+      </c>
+      <c r="S38">
+        <v>772</v>
+      </c>
+      <c r="T38">
+        <v>735</v>
+      </c>
+      <c r="U38">
+        <v>735</v>
+      </c>
+      <c r="V38">
+        <v>735</v>
+      </c>
+      <c r="W38">
+        <v>688</v>
+      </c>
+      <c r="X38">
+        <v>688</v>
+      </c>
+      <c r="Y38">
+        <v>688</v>
+      </c>
+      <c r="Z38">
+        <v>649</v>
+      </c>
+      <c r="AA38">
+        <v>649</v>
+      </c>
+      <c r="AB38">
+        <v>649</v>
+      </c>
+      <c r="AC38">
+        <v>630</v>
+      </c>
+      <c r="AD38">
+        <v>630</v>
+      </c>
+      <c r="AE38">
+        <v>630</v>
+      </c>
+      <c r="AF38">
+        <v>538</v>
+      </c>
+      <c r="AG38">
+        <v>538</v>
+      </c>
+      <c r="AH38">
+        <v>538</v>
+      </c>
+      <c r="AI38">
+        <v>496</v>
+      </c>
+      <c r="AJ38">
+        <v>496</v>
+      </c>
+      <c r="AK38">
+        <v>496</v>
+      </c>
+      <c r="AL38">
+        <v>418</v>
+      </c>
+      <c r="AM38">
+        <v>418</v>
+      </c>
+      <c r="AN38">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>1561</v>
+      </c>
+      <c r="C39">
+        <v>1561</v>
+      </c>
+      <c r="D39">
+        <v>1561</v>
+      </c>
+      <c r="E39">
+        <v>1579</v>
+      </c>
+      <c r="F39">
+        <v>1579</v>
+      </c>
+      <c r="G39">
+        <v>1579</v>
+      </c>
+      <c r="H39">
+        <v>1579</v>
+      </c>
+      <c r="I39">
+        <v>1579</v>
+      </c>
+      <c r="J39">
+        <v>1579</v>
+      </c>
+      <c r="K39">
+        <v>1486</v>
+      </c>
+      <c r="L39">
+        <v>1486</v>
+      </c>
+      <c r="M39">
+        <v>1486</v>
+      </c>
+      <c r="N39">
+        <v>1409</v>
+      </c>
+      <c r="O39">
+        <v>1409</v>
+      </c>
+      <c r="P39">
+        <v>1409</v>
+      </c>
+      <c r="Q39">
+        <v>1348</v>
+      </c>
+      <c r="R39">
+        <v>1348</v>
+      </c>
+      <c r="S39">
+        <v>1348</v>
+      </c>
+      <c r="T39">
+        <v>1303</v>
+      </c>
+      <c r="U39">
+        <v>1303</v>
+      </c>
+      <c r="V39">
+        <v>1303</v>
+      </c>
+      <c r="W39">
+        <v>1245</v>
+      </c>
+      <c r="X39">
+        <v>1245</v>
+      </c>
+      <c r="Y39">
+        <v>1245</v>
+      </c>
+      <c r="Z39">
+        <v>1213</v>
+      </c>
+      <c r="AA39">
+        <v>1213</v>
+      </c>
+      <c r="AB39">
+        <v>1213</v>
+      </c>
+      <c r="AC39">
+        <v>1183</v>
+      </c>
+      <c r="AD39">
+        <v>1183</v>
+      </c>
+      <c r="AE39">
+        <v>1183</v>
+      </c>
+      <c r="AF39">
+        <v>1044</v>
+      </c>
+      <c r="AG39">
+        <v>1044</v>
+      </c>
+      <c r="AH39">
+        <v>1044</v>
+      </c>
+      <c r="AI39">
+        <v>974</v>
+      </c>
+      <c r="AJ39">
+        <v>974</v>
+      </c>
+      <c r="AK39">
+        <v>974</v>
+      </c>
+      <c r="AL39">
+        <v>855</v>
+      </c>
+      <c r="AM39">
+        <v>855</v>
+      </c>
+      <c r="AN39">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>1354</v>
+      </c>
+      <c r="C40">
+        <v>1354</v>
+      </c>
+      <c r="D40">
+        <v>1354</v>
+      </c>
+      <c r="E40">
+        <v>1369</v>
+      </c>
+      <c r="F40">
+        <v>1369</v>
+      </c>
+      <c r="G40">
+        <v>1369</v>
+      </c>
+      <c r="H40">
+        <v>1369</v>
+      </c>
+      <c r="I40">
+        <v>1369</v>
+      </c>
+      <c r="J40">
+        <v>1369</v>
+      </c>
+      <c r="K40">
+        <v>1253</v>
+      </c>
+      <c r="L40">
+        <v>1253</v>
+      </c>
+      <c r="M40">
+        <v>1253</v>
+      </c>
+      <c r="N40">
+        <v>1222</v>
+      </c>
+      <c r="O40">
+        <v>1222</v>
+      </c>
+      <c r="P40">
+        <v>1222</v>
+      </c>
+      <c r="Q40">
+        <v>1181</v>
+      </c>
+      <c r="R40">
+        <v>1181</v>
+      </c>
+      <c r="S40">
+        <v>1181</v>
+      </c>
+      <c r="T40">
+        <v>1153</v>
+      </c>
+      <c r="U40">
+        <v>1153</v>
+      </c>
+      <c r="V40">
+        <v>1153</v>
+      </c>
+      <c r="W40">
+        <v>1125</v>
+      </c>
+      <c r="X40">
+        <v>1125</v>
+      </c>
+      <c r="Y40">
+        <v>1125</v>
+      </c>
+      <c r="Z40">
+        <v>1086</v>
+      </c>
+      <c r="AA40">
+        <v>1086</v>
+      </c>
+      <c r="AB40">
+        <v>1086</v>
+      </c>
+      <c r="AC40">
+        <v>1061</v>
+      </c>
+      <c r="AD40">
+        <v>1061</v>
+      </c>
+      <c r="AE40">
+        <v>1061</v>
+      </c>
+      <c r="AF40">
+        <v>941</v>
+      </c>
+      <c r="AG40">
+        <v>941</v>
+      </c>
+      <c r="AH40">
+        <v>941</v>
+      </c>
+      <c r="AI40">
+        <v>904</v>
+      </c>
+      <c r="AJ40">
+        <v>904</v>
+      </c>
+      <c r="AK40">
+        <v>904</v>
+      </c>
+      <c r="AL40">
+        <v>784</v>
+      </c>
+      <c r="AM40">
+        <v>784</v>
+      </c>
+      <c r="AN40">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>561</v>
+      </c>
+      <c r="C41">
+        <v>561</v>
+      </c>
+      <c r="D41">
+        <v>561</v>
+      </c>
+      <c r="E41">
+        <v>574</v>
+      </c>
+      <c r="F41">
+        <v>574</v>
+      </c>
+      <c r="G41">
+        <v>574</v>
+      </c>
+      <c r="H41">
+        <v>574</v>
+      </c>
+      <c r="I41">
+        <v>574</v>
+      </c>
+      <c r="J41">
+        <v>574</v>
+      </c>
+      <c r="K41">
+        <v>547</v>
+      </c>
+      <c r="L41">
+        <v>547</v>
+      </c>
+      <c r="M41">
+        <v>547</v>
+      </c>
+      <c r="N41">
+        <v>510</v>
+      </c>
+      <c r="O41">
+        <v>510</v>
+      </c>
+      <c r="P41">
+        <v>510</v>
+      </c>
+      <c r="Q41">
+        <v>473</v>
+      </c>
+      <c r="R41">
+        <v>473</v>
+      </c>
+      <c r="S41">
+        <v>473</v>
+      </c>
+      <c r="T41">
+        <v>454</v>
+      </c>
+      <c r="U41">
+        <v>454</v>
+      </c>
+      <c r="V41">
+        <v>454</v>
+      </c>
+      <c r="W41">
+        <v>429</v>
+      </c>
+      <c r="X41">
+        <v>429</v>
+      </c>
+      <c r="Y41">
+        <v>429</v>
+      </c>
+      <c r="Z41">
+        <v>411</v>
+      </c>
+      <c r="AA41">
+        <v>411</v>
+      </c>
+      <c r="AB41">
+        <v>411</v>
+      </c>
+      <c r="AC41">
+        <v>380</v>
+      </c>
+      <c r="AD41">
+        <v>380</v>
+      </c>
+      <c r="AE41">
+        <v>380</v>
+      </c>
+      <c r="AF41">
+        <v>319</v>
+      </c>
+      <c r="AG41">
+        <v>319</v>
+      </c>
+      <c r="AH41">
+        <v>319</v>
+      </c>
+      <c r="AI41">
+        <v>286</v>
+      </c>
+      <c r="AJ41">
+        <v>286</v>
+      </c>
+      <c r="AK41">
+        <v>286</v>
+      </c>
+      <c r="AL41">
+        <v>251</v>
+      </c>
+      <c r="AM41">
+        <v>251</v>
+      </c>
+      <c r="AN41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>1757</v>
+      </c>
+      <c r="C42">
+        <v>1757</v>
+      </c>
+      <c r="D42">
+        <v>1757</v>
+      </c>
+      <c r="E42">
+        <v>1789</v>
+      </c>
+      <c r="F42">
+        <v>1789</v>
+      </c>
+      <c r="G42">
+        <v>1789</v>
+      </c>
+      <c r="H42">
+        <v>1789</v>
+      </c>
+      <c r="I42">
+        <v>1789</v>
+      </c>
+      <c r="J42">
+        <v>1789</v>
+      </c>
+      <c r="K42">
+        <v>1725</v>
+      </c>
+      <c r="L42">
+        <v>1725</v>
+      </c>
+      <c r="M42">
+        <v>1725</v>
+      </c>
+      <c r="N42">
+        <v>1686</v>
+      </c>
+      <c r="O42">
+        <v>1686</v>
+      </c>
+      <c r="P42">
+        <v>1686</v>
+      </c>
+      <c r="Q42">
+        <v>1636</v>
+      </c>
+      <c r="R42">
+        <v>1636</v>
+      </c>
+      <c r="S42">
+        <v>1636</v>
+      </c>
+      <c r="T42">
+        <v>1601</v>
+      </c>
+      <c r="U42">
+        <v>1601</v>
+      </c>
+      <c r="V42">
+        <v>1601</v>
+      </c>
+      <c r="W42">
+        <v>1563</v>
+      </c>
+      <c r="X42">
+        <v>1563</v>
+      </c>
+      <c r="Y42">
+        <v>1563</v>
+      </c>
+      <c r="Z42">
+        <v>1525</v>
+      </c>
+      <c r="AA42">
+        <v>1525</v>
+      </c>
+      <c r="AB42">
+        <v>1525</v>
+      </c>
+      <c r="AC42">
+        <v>1487</v>
+      </c>
+      <c r="AD42">
+        <v>1487</v>
+      </c>
+      <c r="AE42">
+        <v>1487</v>
+      </c>
+      <c r="AF42">
+        <v>1287</v>
+      </c>
+      <c r="AG42">
+        <v>1287</v>
+      </c>
+      <c r="AH42">
+        <v>1287</v>
+      </c>
+      <c r="AI42">
+        <v>1238</v>
+      </c>
+      <c r="AJ42">
+        <v>1238</v>
+      </c>
+      <c r="AK42">
+        <v>1238</v>
+      </c>
+      <c r="AL42">
+        <v>1164</v>
+      </c>
+      <c r="AM42">
+        <v>1164</v>
+      </c>
+      <c r="AN42">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>878</v>
+      </c>
+      <c r="C43">
+        <v>878</v>
+      </c>
+      <c r="D43">
+        <v>878</v>
+      </c>
+      <c r="E43">
+        <v>893</v>
+      </c>
+      <c r="F43">
+        <v>893</v>
+      </c>
+      <c r="G43">
+        <v>893</v>
+      </c>
+      <c r="H43">
+        <v>893</v>
+      </c>
+      <c r="I43">
+        <v>893</v>
+      </c>
+      <c r="J43">
+        <v>893</v>
+      </c>
+      <c r="K43">
+        <v>861</v>
+      </c>
+      <c r="L43">
+        <v>861</v>
+      </c>
+      <c r="M43">
+        <v>861</v>
+      </c>
+      <c r="N43">
+        <v>847</v>
+      </c>
+      <c r="O43">
+        <v>847</v>
+      </c>
+      <c r="P43">
+        <v>847</v>
+      </c>
+      <c r="Q43">
+        <v>827</v>
+      </c>
+      <c r="R43">
+        <v>827</v>
+      </c>
+      <c r="S43">
+        <v>827</v>
+      </c>
+      <c r="T43">
+        <v>813</v>
+      </c>
+      <c r="U43">
+        <v>813</v>
+      </c>
+      <c r="V43">
+        <v>813</v>
+      </c>
+      <c r="W43">
+        <v>798</v>
+      </c>
+      <c r="X43">
+        <v>798</v>
+      </c>
+      <c r="Y43">
+        <v>798</v>
+      </c>
+      <c r="Z43">
+        <v>776</v>
+      </c>
+      <c r="AA43">
+        <v>776</v>
+      </c>
+      <c r="AB43">
+        <v>776</v>
+      </c>
+      <c r="AC43">
+        <v>767</v>
+      </c>
+      <c r="AD43">
+        <v>767</v>
+      </c>
+      <c r="AE43">
+        <v>767</v>
+      </c>
+      <c r="AF43">
+        <v>674</v>
+      </c>
+      <c r="AG43">
+        <v>674</v>
+      </c>
+      <c r="AH43">
+        <v>674</v>
+      </c>
+      <c r="AI43">
+        <v>656</v>
+      </c>
+      <c r="AJ43">
+        <v>656</v>
+      </c>
+      <c r="AK43">
+        <v>656</v>
+      </c>
+      <c r="AL43">
+        <v>624</v>
+      </c>
+      <c r="AM43">
+        <v>624</v>
+      </c>
+      <c r="AN43">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44">
+        <v>978</v>
+      </c>
+      <c r="C44">
+        <v>978</v>
+      </c>
+      <c r="D44">
+        <v>978</v>
+      </c>
+      <c r="E44">
+        <v>1009</v>
+      </c>
+      <c r="F44">
+        <v>1009</v>
+      </c>
+      <c r="G44">
+        <v>1009</v>
+      </c>
+      <c r="H44">
+        <v>1009</v>
+      </c>
+      <c r="I44">
+        <v>1009</v>
+      </c>
+      <c r="J44">
+        <v>1009</v>
+      </c>
+      <c r="K44">
+        <v>979</v>
+      </c>
+      <c r="L44">
+        <v>979</v>
+      </c>
+      <c r="M44">
+        <v>979</v>
+      </c>
+      <c r="N44">
+        <v>963</v>
+      </c>
+      <c r="O44">
+        <v>963</v>
+      </c>
+      <c r="P44">
+        <v>963</v>
+      </c>
+      <c r="Q44">
+        <v>940</v>
+      </c>
+      <c r="R44">
+        <v>940</v>
+      </c>
+      <c r="S44">
+        <v>940</v>
+      </c>
+      <c r="T44">
+        <v>925</v>
+      </c>
+      <c r="U44">
+        <v>925</v>
+      </c>
+      <c r="V44">
+        <v>925</v>
+      </c>
+      <c r="W44">
+        <v>908</v>
+      </c>
+      <c r="X44">
+        <v>908</v>
+      </c>
+      <c r="Y44">
+        <v>908</v>
+      </c>
+      <c r="Z44">
+        <v>891</v>
+      </c>
+      <c r="AA44">
+        <v>891</v>
+      </c>
+      <c r="AB44">
+        <v>891</v>
+      </c>
+      <c r="AC44">
+        <v>870</v>
+      </c>
+      <c r="AD44">
+        <v>870</v>
+      </c>
+      <c r="AE44">
+        <v>870</v>
+      </c>
+      <c r="AF44">
+        <v>767</v>
+      </c>
+      <c r="AG44">
+        <v>767</v>
+      </c>
+      <c r="AH44">
+        <v>767</v>
+      </c>
+      <c r="AI44">
+        <v>728</v>
+      </c>
+      <c r="AJ44">
+        <v>728</v>
+      </c>
+      <c r="AK44">
+        <v>728</v>
+      </c>
+      <c r="AL44">
+        <v>664</v>
+      </c>
+      <c r="AM44">
+        <v>664</v>
+      </c>
+      <c r="AN44">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45">
+        <v>288</v>
+      </c>
+      <c r="C45">
+        <v>288</v>
+      </c>
+      <c r="D45">
+        <v>288</v>
+      </c>
+      <c r="E45">
+        <v>291</v>
+      </c>
+      <c r="F45">
+        <v>291</v>
+      </c>
+      <c r="G45">
+        <v>291</v>
+      </c>
+      <c r="H45">
+        <v>291</v>
+      </c>
+      <c r="I45">
+        <v>291</v>
+      </c>
+      <c r="J45">
+        <v>291</v>
+      </c>
+      <c r="K45">
+        <v>286</v>
+      </c>
+      <c r="L45">
+        <v>286</v>
+      </c>
+      <c r="M45">
+        <v>286</v>
+      </c>
+      <c r="N45">
+        <v>275</v>
+      </c>
+      <c r="O45">
+        <v>275</v>
+      </c>
+      <c r="P45">
+        <v>275</v>
+      </c>
+      <c r="Q45">
+        <v>265</v>
+      </c>
+      <c r="R45">
+        <v>265</v>
+      </c>
+      <c r="S45">
+        <v>265</v>
+      </c>
+      <c r="T45">
+        <v>256</v>
+      </c>
+      <c r="U45">
+        <v>256</v>
+      </c>
+      <c r="V45">
+        <v>256</v>
+      </c>
+      <c r="W45">
+        <v>248</v>
+      </c>
+      <c r="X45">
+        <v>248</v>
+      </c>
+      <c r="Y45">
+        <v>248</v>
+      </c>
+      <c r="Z45">
+        <v>238</v>
+      </c>
+      <c r="AA45">
+        <v>238</v>
+      </c>
+      <c r="AB45">
+        <v>238</v>
+      </c>
+      <c r="AC45">
+        <v>229</v>
+      </c>
+      <c r="AD45">
+        <v>229</v>
+      </c>
+      <c r="AE45">
+        <v>229</v>
+      </c>
+      <c r="AF45">
+        <v>181</v>
+      </c>
+      <c r="AG45">
+        <v>181</v>
+      </c>
+      <c r="AH45">
+        <v>181</v>
+      </c>
+      <c r="AI45">
+        <v>183</v>
+      </c>
+      <c r="AJ45">
+        <v>183</v>
+      </c>
+      <c r="AK45">
+        <v>183</v>
+      </c>
+      <c r="AL45">
+        <v>185</v>
+      </c>
+      <c r="AM45">
+        <v>185</v>
+      </c>
+      <c r="AN45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
+        <v>857</v>
+      </c>
+      <c r="C46">
+        <v>857</v>
+      </c>
+      <c r="D46">
+        <v>857</v>
+      </c>
+      <c r="E46">
+        <v>858</v>
+      </c>
+      <c r="F46">
+        <v>858</v>
+      </c>
+      <c r="G46">
+        <v>858</v>
+      </c>
+      <c r="H46">
+        <v>858</v>
+      </c>
+      <c r="I46">
+        <v>858</v>
+      </c>
+      <c r="J46">
+        <v>858</v>
+      </c>
+      <c r="K46">
+        <v>863</v>
+      </c>
+      <c r="L46">
+        <v>863</v>
+      </c>
+      <c r="M46">
+        <v>863</v>
+      </c>
+      <c r="N46">
+        <v>842</v>
+      </c>
+      <c r="O46">
+        <v>842</v>
+      </c>
+      <c r="P46">
+        <v>842</v>
+      </c>
+      <c r="Q46">
+        <v>802</v>
+      </c>
+      <c r="R46">
+        <v>802</v>
+      </c>
+      <c r="S46">
+        <v>802</v>
+      </c>
+      <c r="T46">
+        <v>768</v>
+      </c>
+      <c r="U46">
+        <v>768</v>
+      </c>
+      <c r="V46">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <v>359</v>
+      </c>
+      <c r="C47">
+        <v>359</v>
+      </c>
+      <c r="D47">
+        <v>359</v>
+      </c>
+      <c r="E47">
+        <v>378</v>
+      </c>
+      <c r="F47">
+        <v>378</v>
+      </c>
+      <c r="G47">
+        <v>378</v>
+      </c>
+      <c r="H47">
+        <v>378</v>
+      </c>
+      <c r="I47">
+        <v>378</v>
+      </c>
+      <c r="J47">
+        <v>378</v>
+      </c>
+      <c r="K47">
+        <v>378</v>
+      </c>
+      <c r="L47">
+        <v>378</v>
+      </c>
+      <c r="M47">
+        <v>378</v>
+      </c>
+      <c r="N47">
+        <v>358</v>
+      </c>
+      <c r="O47">
+        <v>358</v>
+      </c>
+      <c r="P47">
+        <v>358</v>
+      </c>
+      <c r="Q47">
+        <v>340</v>
+      </c>
+      <c r="R47">
+        <v>340</v>
+      </c>
+      <c r="S47">
+        <v>340</v>
+      </c>
+      <c r="T47">
+        <v>323</v>
+      </c>
+      <c r="U47">
+        <v>323</v>
+      </c>
+      <c r="V47">
+        <v>323</v>
+      </c>
+      <c r="W47">
+        <v>312</v>
+      </c>
+      <c r="X47">
+        <v>312</v>
+      </c>
+      <c r="Y47">
+        <v>312</v>
+      </c>
+      <c r="Z47">
+        <v>306</v>
+      </c>
+      <c r="AA47">
+        <v>306</v>
+      </c>
+      <c r="AB47">
+        <v>306</v>
+      </c>
+      <c r="AC47">
+        <v>308</v>
+      </c>
+      <c r="AD47">
+        <v>308</v>
+      </c>
+      <c r="AE47">
+        <v>308</v>
+      </c>
+      <c r="AF47">
+        <v>275</v>
+      </c>
+      <c r="AG47">
+        <v>275</v>
+      </c>
+      <c r="AH47">
+        <v>275</v>
+      </c>
+      <c r="AI47">
+        <v>268</v>
+      </c>
+      <c r="AJ47">
+        <v>268</v>
+      </c>
+      <c r="AK47">
+        <v>268</v>
+      </c>
+      <c r="AL47">
+        <v>267</v>
+      </c>
+      <c r="AM47">
+        <v>267</v>
+      </c>
+      <c r="AN47">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48">
+        <v>775</v>
+      </c>
+      <c r="C48">
+        <v>775</v>
+      </c>
+      <c r="D48">
+        <v>775</v>
+      </c>
+      <c r="E48">
+        <v>813</v>
+      </c>
+      <c r="F48">
+        <v>813</v>
+      </c>
+      <c r="G48">
+        <v>813</v>
+      </c>
+      <c r="H48">
+        <v>813</v>
+      </c>
+      <c r="I48">
+        <v>813</v>
+      </c>
+      <c r="J48">
+        <v>813</v>
+      </c>
+      <c r="K48">
+        <v>813</v>
+      </c>
+      <c r="L48">
+        <v>813</v>
+      </c>
+      <c r="M48">
+        <v>813</v>
+      </c>
+      <c r="N48">
+        <v>808</v>
+      </c>
+      <c r="O48">
+        <v>808</v>
+      </c>
+      <c r="P48">
+        <v>808</v>
+      </c>
+      <c r="Q48">
+        <v>795</v>
+      </c>
+      <c r="R48">
+        <v>795</v>
+      </c>
+      <c r="S48">
+        <v>795</v>
+      </c>
+      <c r="T48">
+        <v>787</v>
+      </c>
+      <c r="U48">
+        <v>787</v>
+      </c>
+      <c r="V48">
+        <v>787</v>
+      </c>
+      <c r="W48">
+        <v>771</v>
+      </c>
+      <c r="X48">
+        <v>771</v>
+      </c>
+      <c r="Y48">
+        <v>771</v>
+      </c>
+      <c r="Z48">
+        <v>756</v>
+      </c>
+      <c r="AA48">
+        <v>756</v>
+      </c>
+      <c r="AB48">
+        <v>756</v>
+      </c>
+      <c r="AC48">
+        <v>739</v>
+      </c>
+      <c r="AD48">
+        <v>739</v>
+      </c>
+      <c r="AE48">
+        <v>739</v>
+      </c>
+      <c r="AF48">
+        <v>606</v>
+      </c>
+      <c r="AG48">
+        <v>606</v>
+      </c>
+      <c r="AH48">
+        <v>606</v>
+      </c>
+      <c r="AI48">
+        <v>591</v>
+      </c>
+      <c r="AJ48">
+        <v>591</v>
+      </c>
+      <c r="AK48">
+        <v>591</v>
+      </c>
+      <c r="AL48">
+        <v>567</v>
+      </c>
+      <c r="AM48">
+        <v>567</v>
+      </c>
+      <c r="AN48">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49">
+        <v>1207</v>
+      </c>
+      <c r="C49">
+        <v>1207</v>
+      </c>
+      <c r="D49">
+        <v>1207</v>
+      </c>
+      <c r="E49">
+        <v>1241</v>
+      </c>
+      <c r="F49">
+        <v>1241</v>
+      </c>
+      <c r="G49">
+        <v>1241</v>
+      </c>
+      <c r="H49">
+        <v>1241</v>
+      </c>
+      <c r="I49">
+        <v>1241</v>
+      </c>
+      <c r="J49">
+        <v>1241</v>
+      </c>
+      <c r="K49">
+        <v>1247</v>
+      </c>
+      <c r="L49">
+        <v>1247</v>
+      </c>
+      <c r="M49">
+        <v>1247</v>
+      </c>
+      <c r="N49">
+        <v>1240</v>
+      </c>
+      <c r="O49">
+        <v>1240</v>
+      </c>
+      <c r="P49">
+        <v>1240</v>
+      </c>
+      <c r="Q49">
+        <v>1225</v>
+      </c>
+      <c r="R49">
+        <v>1225</v>
+      </c>
+      <c r="S49">
+        <v>1225</v>
+      </c>
+      <c r="T49">
+        <v>1210</v>
+      </c>
+      <c r="U49">
+        <v>1210</v>
+      </c>
+      <c r="V49">
+        <v>1210</v>
+      </c>
+      <c r="W49">
+        <v>1195</v>
+      </c>
+      <c r="X49">
+        <v>1195</v>
+      </c>
+      <c r="Y49">
+        <v>1195</v>
+      </c>
+      <c r="Z49">
+        <v>1174</v>
+      </c>
+      <c r="AA49">
+        <v>1174</v>
+      </c>
+      <c r="AB49">
+        <v>1174</v>
+      </c>
+      <c r="AC49">
+        <v>1171</v>
+      </c>
+      <c r="AD49">
+        <v>1171</v>
+      </c>
+      <c r="AE49">
+        <v>1171</v>
+      </c>
+      <c r="AF49">
+        <v>1139</v>
+      </c>
+      <c r="AG49">
+        <v>1139</v>
+      </c>
+      <c r="AH49">
+        <v>1139</v>
+      </c>
+      <c r="AI49">
+        <v>1118</v>
+      </c>
+      <c r="AJ49">
+        <v>1118</v>
+      </c>
+      <c r="AK49">
+        <v>1118</v>
+      </c>
+      <c r="AL49">
+        <v>1064</v>
+      </c>
+      <c r="AM49">
+        <v>1064</v>
+      </c>
+      <c r="AN49">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50">
+        <v>994</v>
+      </c>
+      <c r="C50">
+        <v>994</v>
+      </c>
+      <c r="D50">
+        <v>994</v>
+      </c>
+      <c r="E50">
+        <v>1055</v>
+      </c>
+      <c r="F50">
+        <v>1055</v>
+      </c>
+      <c r="G50">
+        <v>1055</v>
+      </c>
+      <c r="H50">
+        <v>1055</v>
+      </c>
+      <c r="I50">
+        <v>1055</v>
+      </c>
+      <c r="J50">
+        <v>1055</v>
+      </c>
+      <c r="K50">
+        <v>1083</v>
+      </c>
+      <c r="L50">
+        <v>1083</v>
+      </c>
+      <c r="M50">
+        <v>1083</v>
+      </c>
+      <c r="N50">
+        <v>1082</v>
+      </c>
+      <c r="O50">
+        <v>1082</v>
+      </c>
+      <c r="P50">
+        <v>1082</v>
+      </c>
+      <c r="Q50">
+        <v>1052</v>
+      </c>
+      <c r="R50">
+        <v>1052</v>
+      </c>
+      <c r="S50">
+        <v>1052</v>
+      </c>
+      <c r="T50">
+        <v>1039</v>
+      </c>
+      <c r="U50">
+        <v>1039</v>
+      </c>
+      <c r="V50">
+        <v>1039</v>
+      </c>
+      <c r="W50">
+        <v>1010</v>
+      </c>
+      <c r="X50">
+        <v>1010</v>
+      </c>
+      <c r="Y50">
+        <v>1010</v>
+      </c>
+      <c r="Z50">
+        <v>967</v>
+      </c>
+      <c r="AA50">
+        <v>967</v>
+      </c>
+      <c r="AB50">
+        <v>967</v>
+      </c>
+      <c r="AC50">
+        <v>916</v>
+      </c>
+      <c r="AD50">
+        <v>916</v>
+      </c>
+      <c r="AE50">
+        <v>916</v>
+      </c>
+      <c r="AF50">
+        <v>827</v>
+      </c>
+      <c r="AG50">
+        <v>827</v>
+      </c>
+      <c r="AH50">
+        <v>827</v>
+      </c>
+      <c r="AI50">
+        <v>756</v>
+      </c>
+      <c r="AJ50">
+        <v>756</v>
+      </c>
+      <c r="AK50">
+        <v>756</v>
+      </c>
+      <c r="AL50">
+        <v>668</v>
+      </c>
+      <c r="AM50">
+        <v>668</v>
+      </c>
+      <c r="AN50">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51">
+        <v>806</v>
+      </c>
+      <c r="C51">
+        <v>806</v>
+      </c>
+      <c r="D51">
+        <v>806</v>
+      </c>
+      <c r="E51">
+        <v>900</v>
+      </c>
+      <c r="F51">
+        <v>900</v>
+      </c>
+      <c r="G51">
+        <v>900</v>
+      </c>
+      <c r="H51">
+        <v>900</v>
+      </c>
+      <c r="I51">
+        <v>900</v>
+      </c>
+      <c r="J51">
+        <v>900</v>
+      </c>
+      <c r="K51">
+        <v>902</v>
+      </c>
+      <c r="L51">
+        <v>902</v>
+      </c>
+      <c r="M51">
+        <v>902</v>
+      </c>
+      <c r="N51">
+        <v>904</v>
+      </c>
+      <c r="O51">
+        <v>904</v>
+      </c>
+      <c r="P51">
+        <v>904</v>
+      </c>
+      <c r="Q51">
+        <v>885</v>
+      </c>
+      <c r="R51">
+        <v>885</v>
+      </c>
+      <c r="S51">
+        <v>885</v>
+      </c>
+      <c r="T51">
+        <v>876</v>
+      </c>
+      <c r="U51">
+        <v>876</v>
+      </c>
+      <c r="V51">
+        <v>876</v>
+      </c>
+      <c r="W51">
+        <v>872</v>
+      </c>
+      <c r="X51">
+        <v>872</v>
+      </c>
+      <c r="Y51">
+        <v>872</v>
+      </c>
+      <c r="Z51">
+        <v>866</v>
+      </c>
+      <c r="AA51">
+        <v>866</v>
+      </c>
+      <c r="AB51">
+        <v>866</v>
+      </c>
+      <c r="AC51">
+        <v>860</v>
+      </c>
+      <c r="AD51">
+        <v>860</v>
+      </c>
+      <c r="AE51">
+        <v>860</v>
+      </c>
+      <c r="AF51">
+        <v>786</v>
+      </c>
+      <c r="AG51">
+        <v>786</v>
+      </c>
+      <c r="AH51">
+        <v>786</v>
+      </c>
+      <c r="AI51">
         <v>743</v>
       </c>
-      <c r="H2">
-        <v>744</v>
-      </c>
-      <c r="I2">
-        <v>745</v>
-      </c>
-      <c r="J2">
-        <v>745</v>
-      </c>
-      <c r="K2">
-        <v>746</v>
-      </c>
-      <c r="L2">
-        <v>747</v>
-      </c>
-      <c r="M2">
-        <v>748</v>
-      </c>
-      <c r="N2">
-        <v>748</v>
-      </c>
-      <c r="O2">
-        <v>749</v>
-      </c>
-      <c r="P2">
-        <v>749</v>
-      </c>
-      <c r="Q2">
-        <v>751</v>
-      </c>
-      <c r="R2">
-        <v>751</v>
-      </c>
-      <c r="S2">
-        <v>751</v>
-      </c>
-      <c r="T2">
-        <v>751</v>
-      </c>
-      <c r="U2">
-        <v>751</v>
-      </c>
-      <c r="V2">
-        <v>751</v>
-      </c>
-      <c r="W2">
-        <v>751</v>
-      </c>
-      <c r="X2">
-        <v>751</v>
-      </c>
-      <c r="Y2">
-        <v>751</v>
-      </c>
-      <c r="Z2">
-        <v>751</v>
-      </c>
-      <c r="AA2">
-        <v>751</v>
-      </c>
-      <c r="AB2">
-        <v>751</v>
-      </c>
-      <c r="AC2">
-        <v>720</v>
-      </c>
-      <c r="AD2">
-        <v>720</v>
-      </c>
-      <c r="AE2">
-        <v>720</v>
-      </c>
-      <c r="AF2">
-        <v>805</v>
-      </c>
-      <c r="AG2">
-        <v>805</v>
-      </c>
-      <c r="AH2">
-        <v>805</v>
-      </c>
-      <c r="AI2">
-        <v>865</v>
-      </c>
-      <c r="AJ2">
-        <v>865</v>
-      </c>
-      <c r="AK2">
-        <v>865</v>
+      <c r="AJ51">
+        <v>743</v>
+      </c>
+      <c r="AK51">
+        <v>743</v>
+      </c>
+      <c r="AL51">
+        <v>681</v>
+      </c>
+      <c r="AM51">
+        <v>681</v>
+      </c>
+      <c r="AN51">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>2286</v>
+      </c>
+      <c r="C52">
+        <v>2286</v>
+      </c>
+      <c r="D52">
+        <v>2286</v>
+      </c>
+      <c r="E52">
+        <v>2331</v>
+      </c>
+      <c r="F52">
+        <v>2331</v>
+      </c>
+      <c r="G52">
+        <v>2331</v>
+      </c>
+      <c r="H52">
+        <v>2331</v>
+      </c>
+      <c r="I52">
+        <v>2331</v>
+      </c>
+      <c r="J52">
+        <v>2331</v>
+      </c>
+      <c r="K52">
+        <v>2331</v>
+      </c>
+      <c r="L52">
+        <v>2331</v>
+      </c>
+      <c r="M52">
+        <v>2331</v>
+      </c>
+      <c r="N52">
+        <v>2299</v>
+      </c>
+      <c r="O52">
+        <v>2299</v>
+      </c>
+      <c r="P52">
+        <v>2299</v>
+      </c>
+      <c r="Q52">
+        <v>2225</v>
+      </c>
+      <c r="R52">
+        <v>2225</v>
+      </c>
+      <c r="S52">
+        <v>2225</v>
+      </c>
+      <c r="T52">
+        <v>2164</v>
+      </c>
+      <c r="U52">
+        <v>2164</v>
+      </c>
+      <c r="V52">
+        <v>2164</v>
+      </c>
+      <c r="W52">
+        <v>2021</v>
+      </c>
+      <c r="X52">
+        <v>2021</v>
+      </c>
+      <c r="Y52">
+        <v>2021</v>
+      </c>
+      <c r="Z52">
+        <v>1834</v>
+      </c>
+      <c r="AA52">
+        <v>1834</v>
+      </c>
+      <c r="AB52">
+        <v>1834</v>
+      </c>
+      <c r="AC52">
+        <v>1714</v>
+      </c>
+      <c r="AD52">
+        <v>1714</v>
+      </c>
+      <c r="AE52">
+        <v>1714</v>
+      </c>
+      <c r="AF52">
+        <v>1585</v>
+      </c>
+      <c r="AG52">
+        <v>1585</v>
+      </c>
+      <c r="AH52">
+        <v>1585</v>
+      </c>
+      <c r="AI52">
+        <v>1493</v>
+      </c>
+      <c r="AJ52">
+        <v>1493</v>
+      </c>
+      <c r="AK52">
+        <v>1493</v>
+      </c>
+      <c r="AL52">
+        <v>1402</v>
+      </c>
+      <c r="AM52">
+        <v>1402</v>
+      </c>
+      <c r="AN52">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>171</v>
+      </c>
+      <c r="C53">
+        <v>171</v>
+      </c>
+      <c r="D53">
+        <v>171</v>
+      </c>
+      <c r="E53">
+        <v>180</v>
+      </c>
+      <c r="F53">
+        <v>180</v>
+      </c>
+      <c r="G53">
+        <v>180</v>
+      </c>
+      <c r="H53">
+        <v>180</v>
+      </c>
+      <c r="I53">
+        <v>180</v>
+      </c>
+      <c r="J53">
+        <v>180</v>
+      </c>
+      <c r="K53">
+        <v>184</v>
+      </c>
+      <c r="L53">
+        <v>184</v>
+      </c>
+      <c r="M53">
+        <v>184</v>
+      </c>
+      <c r="N53">
+        <v>189</v>
+      </c>
+      <c r="O53">
+        <v>189</v>
+      </c>
+      <c r="P53">
+        <v>189</v>
+      </c>
+      <c r="Q53">
+        <v>193</v>
+      </c>
+      <c r="R53">
+        <v>193</v>
+      </c>
+      <c r="S53">
+        <v>193</v>
+      </c>
+      <c r="T53">
+        <v>193</v>
+      </c>
+      <c r="U53">
+        <v>193</v>
+      </c>
+      <c r="V53">
+        <v>193</v>
+      </c>
+      <c r="W53">
+        <v>200</v>
+      </c>
+      <c r="X53">
+        <v>200</v>
+      </c>
+      <c r="Y53">
+        <v>200</v>
+      </c>
+      <c r="Z53">
+        <v>193</v>
+      </c>
+      <c r="AA53">
+        <v>193</v>
+      </c>
+      <c r="AB53">
+        <v>193</v>
+      </c>
+      <c r="AC53">
+        <v>195</v>
+      </c>
+      <c r="AD53">
+        <v>195</v>
+      </c>
+      <c r="AE53">
+        <v>195</v>
+      </c>
+      <c r="AF53">
+        <v>181</v>
+      </c>
+      <c r="AG53">
+        <v>181</v>
+      </c>
+      <c r="AH53">
+        <v>181</v>
+      </c>
+      <c r="AI53">
+        <v>173</v>
+      </c>
+      <c r="AJ53">
+        <v>173</v>
+      </c>
+      <c r="AK53">
+        <v>173</v>
+      </c>
+      <c r="AL53">
+        <v>167</v>
+      </c>
+      <c r="AM53">
+        <v>167</v>
+      </c>
+      <c r="AN53">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
+      <c r="A54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>286</v>
+      </c>
+      <c r="C54">
+        <v>286</v>
+      </c>
+      <c r="D54">
+        <v>286</v>
+      </c>
+      <c r="E54">
+        <v>326</v>
+      </c>
+      <c r="F54">
+        <v>326</v>
+      </c>
+      <c r="G54">
+        <v>326</v>
+      </c>
+      <c r="H54">
+        <v>326</v>
+      </c>
+      <c r="I54">
+        <v>326</v>
+      </c>
+      <c r="J54">
+        <v>326</v>
+      </c>
+      <c r="K54">
+        <v>326</v>
+      </c>
+      <c r="L54">
+        <v>326</v>
+      </c>
+      <c r="M54">
+        <v>326</v>
+      </c>
+      <c r="N54">
+        <v>331</v>
+      </c>
+      <c r="O54">
+        <v>331</v>
+      </c>
+      <c r="P54">
+        <v>331</v>
+      </c>
+      <c r="Q54">
+        <v>337</v>
+      </c>
+      <c r="R54">
+        <v>337</v>
+      </c>
+      <c r="S54">
+        <v>337</v>
+      </c>
+      <c r="T54">
+        <v>339</v>
+      </c>
+      <c r="U54">
+        <v>339</v>
+      </c>
+      <c r="V54">
+        <v>339</v>
+      </c>
+      <c r="W54">
+        <v>348</v>
+      </c>
+      <c r="X54">
+        <v>348</v>
+      </c>
+      <c r="Y54">
+        <v>348</v>
+      </c>
+      <c r="Z54">
+        <v>343</v>
+      </c>
+      <c r="AA54">
+        <v>343</v>
+      </c>
+      <c r="AB54">
+        <v>343</v>
+      </c>
+      <c r="AC54">
+        <v>343</v>
+      </c>
+      <c r="AD54">
+        <v>343</v>
+      </c>
+      <c r="AE54">
+        <v>343</v>
+      </c>
+      <c r="AF54">
+        <v>317</v>
+      </c>
+      <c r="AG54">
+        <v>317</v>
+      </c>
+      <c r="AH54">
+        <v>317</v>
+      </c>
+      <c r="AI54">
+        <v>306</v>
+      </c>
+      <c r="AJ54">
+        <v>306</v>
+      </c>
+      <c r="AK54">
+        <v>306</v>
+      </c>
+      <c r="AL54">
+        <v>294</v>
+      </c>
+      <c r="AM54">
+        <v>294</v>
+      </c>
+      <c r="AN54">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <v>290</v>
+      </c>
+      <c r="C55">
+        <v>290</v>
+      </c>
+      <c r="D55">
+        <v>290</v>
+      </c>
+      <c r="E55">
+        <v>307</v>
+      </c>
+      <c r="F55">
+        <v>307</v>
+      </c>
+      <c r="G55">
+        <v>307</v>
+      </c>
+      <c r="H55">
+        <v>307</v>
+      </c>
+      <c r="I55">
+        <v>307</v>
+      </c>
+      <c r="J55">
+        <v>307</v>
+      </c>
+      <c r="K55">
+        <v>307</v>
+      </c>
+      <c r="L55">
+        <v>307</v>
+      </c>
+      <c r="M55">
+        <v>307</v>
+      </c>
+      <c r="N55">
+        <v>307</v>
+      </c>
+      <c r="O55">
+        <v>307</v>
+      </c>
+      <c r="P55">
+        <v>307</v>
+      </c>
+      <c r="Q55">
+        <v>307</v>
+      </c>
+      <c r="R55">
+        <v>307</v>
+      </c>
+      <c r="S55">
+        <v>307</v>
+      </c>
+      <c r="T55">
+        <v>307</v>
+      </c>
+      <c r="U55">
+        <v>307</v>
+      </c>
+      <c r="V55">
+        <v>307</v>
+      </c>
+      <c r="W55">
+        <v>307</v>
+      </c>
+      <c r="X55">
+        <v>307</v>
+      </c>
+      <c r="Y55">
+        <v>307</v>
+      </c>
+      <c r="Z55">
+        <v>297</v>
+      </c>
+      <c r="AA55">
+        <v>297</v>
+      </c>
+      <c r="AB55">
+        <v>297</v>
+      </c>
+      <c r="AC55">
+        <v>287</v>
+      </c>
+      <c r="AD55">
+        <v>287</v>
+      </c>
+      <c r="AE55">
+        <v>287</v>
+      </c>
+      <c r="AF55">
+        <v>253</v>
+      </c>
+      <c r="AG55">
+        <v>253</v>
+      </c>
+      <c r="AH55">
+        <v>253</v>
+      </c>
+      <c r="AI55">
+        <v>226</v>
+      </c>
+      <c r="AJ55">
+        <v>226</v>
+      </c>
+      <c r="AK55">
+        <v>226</v>
+      </c>
+      <c r="AL55">
+        <v>185</v>
+      </c>
+      <c r="AM55">
+        <v>185</v>
+      </c>
+      <c r="AN55">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>1031</v>
+      </c>
+      <c r="C56">
+        <v>1031</v>
+      </c>
+      <c r="D56">
+        <v>1031</v>
+      </c>
+      <c r="E56">
+        <v>1070</v>
+      </c>
+      <c r="F56">
+        <v>1070</v>
+      </c>
+      <c r="G56">
+        <v>1070</v>
+      </c>
+      <c r="H56">
+        <v>1070</v>
+      </c>
+      <c r="I56">
+        <v>1070</v>
+      </c>
+      <c r="J56">
+        <v>1070</v>
+      </c>
+      <c r="K56">
+        <v>1071</v>
+      </c>
+      <c r="L56">
+        <v>1071</v>
+      </c>
+      <c r="M56">
+        <v>1071</v>
+      </c>
+      <c r="N56">
+        <v>1072</v>
+      </c>
+      <c r="O56">
+        <v>1072</v>
+      </c>
+      <c r="P56">
+        <v>1072</v>
+      </c>
+      <c r="Q56">
+        <v>1072</v>
+      </c>
+      <c r="R56">
+        <v>1072</v>
+      </c>
+      <c r="S56">
+        <v>1072</v>
+      </c>
+      <c r="T56">
+        <v>1072</v>
+      </c>
+      <c r="U56">
+        <v>1072</v>
+      </c>
+      <c r="V56">
+        <v>1072</v>
+      </c>
+      <c r="W56">
+        <v>1073</v>
+      </c>
+      <c r="X56">
+        <v>1073</v>
+      </c>
+      <c r="Y56">
+        <v>1073</v>
+      </c>
+      <c r="Z56">
+        <v>1073</v>
+      </c>
+      <c r="AA56">
+        <v>1073</v>
+      </c>
+      <c r="AB56">
+        <v>1073</v>
+      </c>
+      <c r="AC56">
+        <v>1073</v>
+      </c>
+      <c r="AD56">
+        <v>1073</v>
+      </c>
+      <c r="AE56">
+        <v>1073</v>
+      </c>
+      <c r="AF56">
+        <v>1073</v>
+      </c>
+      <c r="AG56">
+        <v>1073</v>
+      </c>
+      <c r="AH56">
+        <v>1073</v>
+      </c>
+      <c r="AI56">
+        <v>1073</v>
+      </c>
+      <c r="AJ56">
+        <v>1073</v>
+      </c>
+      <c r="AK56">
+        <v>1073</v>
+      </c>
+      <c r="AL56">
+        <v>276</v>
+      </c>
+      <c r="AM56">
+        <v>276</v>
+      </c>
+      <c r="AN56">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
